--- a/data/nzd0364/nzd0364.xlsx
+++ b/data/nzd0364/nzd0364.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U451"/>
+  <dimension ref="A1:U456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29169,12 +29169,18 @@
       <c r="J451" t="n">
         <v>429.3542857142857</v>
       </c>
-      <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="K451" t="n">
+        <v>422.1942857142857</v>
+      </c>
+      <c r="L451" t="n">
+        <v>421.6642857142857</v>
+      </c>
       <c r="M451" t="n">
         <v>442.03</v>
       </c>
-      <c r="N451" t="inlineStr"/>
+      <c r="N451" t="n">
+        <v>440.4142857142857</v>
+      </c>
       <c r="O451" t="n">
         <v>459.24</v>
       </c>
@@ -29194,6 +29200,339 @@
         <v>486.5442857142857</v>
       </c>
       <c r="U451" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:07:16+00:00</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>408.9028571428572</v>
+      </c>
+      <c r="C452" t="n">
+        <v>409.0828571428572</v>
+      </c>
+      <c r="D452" t="n">
+        <v>418.5928571428572</v>
+      </c>
+      <c r="E452" t="n">
+        <v>428.1128571428572</v>
+      </c>
+      <c r="F452" t="n">
+        <v>427.9728571428572</v>
+      </c>
+      <c r="G452" t="n">
+        <v>430.1928571428572</v>
+      </c>
+      <c r="H452" t="n">
+        <v>429.8728571428572</v>
+      </c>
+      <c r="I452" t="n">
+        <v>434.7228571428572</v>
+      </c>
+      <c r="J452" t="n">
+        <v>443.0828571428572</v>
+      </c>
+      <c r="K452" t="n">
+        <v>439.6628571428572</v>
+      </c>
+      <c r="L452" t="n">
+        <v>446.8928571428572</v>
+      </c>
+      <c r="M452" t="n">
+        <v>457.8333333333333</v>
+      </c>
+      <c r="N452" t="n">
+        <v>464.5228571428572</v>
+      </c>
+      <c r="O452" t="n">
+        <v>473.71</v>
+      </c>
+      <c r="P452" t="n">
+        <v>460.9133333333333</v>
+      </c>
+      <c r="Q452" t="n">
+        <v>469.87</v>
+      </c>
+      <c r="R452" t="n">
+        <v>499.19</v>
+      </c>
+      <c r="S452" t="n">
+        <v>504.1733333333333</v>
+      </c>
+      <c r="T452" t="n">
+        <v>500.8828571428572</v>
+      </c>
+      <c r="U452" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>413.3428571428572</v>
+      </c>
+      <c r="C453" t="n">
+        <v>419.0728571428572</v>
+      </c>
+      <c r="D453" t="n">
+        <v>425.9028571428572</v>
+      </c>
+      <c r="E453" t="n">
+        <v>434.2828571428572</v>
+      </c>
+      <c r="F453" t="n">
+        <v>438.3128571428572</v>
+      </c>
+      <c r="G453" t="n">
+        <v>439.9828571428571</v>
+      </c>
+      <c r="H453" t="n">
+        <v>438.2728571428572</v>
+      </c>
+      <c r="I453" t="n">
+        <v>444.9528571428572</v>
+      </c>
+      <c r="J453" t="n">
+        <v>448.1628571428572</v>
+      </c>
+      <c r="K453" t="n">
+        <v>452.5928571428572</v>
+      </c>
+      <c r="L453" t="n">
+        <v>460.3728571428572</v>
+      </c>
+      <c r="M453" t="n">
+        <v>465.9533333333333</v>
+      </c>
+      <c r="N453" t="n">
+        <v>472.9328571428572</v>
+      </c>
+      <c r="O453" t="n">
+        <v>485.92</v>
+      </c>
+      <c r="P453" t="n">
+        <v>470.8033333333333</v>
+      </c>
+      <c r="Q453" t="n">
+        <v>480.36</v>
+      </c>
+      <c r="R453" t="n">
+        <v>510.23</v>
+      </c>
+      <c r="S453" t="n">
+        <v>512.3133333333334</v>
+      </c>
+      <c r="T453" t="n">
+        <v>514.1728571428571</v>
+      </c>
+      <c r="U453" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:07:13+00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>408.0942857142857</v>
+      </c>
+      <c r="C454" t="n">
+        <v>412.8742857142857</v>
+      </c>
+      <c r="D454" t="n">
+        <v>421.9142857142857</v>
+      </c>
+      <c r="E454" t="n">
+        <v>428.7742857142857</v>
+      </c>
+      <c r="F454" t="n">
+        <v>426.7642857142857</v>
+      </c>
+      <c r="G454" t="n">
+        <v>428.4042857142857</v>
+      </c>
+      <c r="H454" t="n">
+        <v>430.5242857142857</v>
+      </c>
+      <c r="I454" t="n">
+        <v>432.6342857142857</v>
+      </c>
+      <c r="J454" t="n">
+        <v>442.1542857142857</v>
+      </c>
+      <c r="K454" t="n">
+        <v>443.3542857142857</v>
+      </c>
+      <c r="L454" t="n">
+        <v>448.2742857142857</v>
+      </c>
+      <c r="M454" t="n">
+        <v>460.9766666666667</v>
+      </c>
+      <c r="N454" t="n">
+        <v>465.5342857142857</v>
+      </c>
+      <c r="O454" t="n">
+        <v>476.11</v>
+      </c>
+      <c r="P454" t="n">
+        <v>461.2066666666667</v>
+      </c>
+      <c r="Q454" t="n">
+        <v>463.95</v>
+      </c>
+      <c r="R454" t="inlineStr"/>
+      <c r="S454" t="inlineStr"/>
+      <c r="T454" t="inlineStr"/>
+      <c r="U454" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:07:20+00:00</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>407.3614285714286</v>
+      </c>
+      <c r="C455" t="n">
+        <v>415.6514285714285</v>
+      </c>
+      <c r="D455" t="n">
+        <v>427.3014285714286</v>
+      </c>
+      <c r="E455" t="n">
+        <v>429.3314285714285</v>
+      </c>
+      <c r="F455" t="n">
+        <v>430.5014285714286</v>
+      </c>
+      <c r="G455" t="n">
+        <v>431.2614285714286</v>
+      </c>
+      <c r="H455" t="n">
+        <v>433.9714285714285</v>
+      </c>
+      <c r="I455" t="n">
+        <v>438.4614285714285</v>
+      </c>
+      <c r="J455" t="n">
+        <v>444.5714285714286</v>
+      </c>
+      <c r="K455" t="n">
+        <v>446.6914285714286</v>
+      </c>
+      <c r="L455" t="n">
+        <v>456.9614285714285</v>
+      </c>
+      <c r="M455" t="n">
+        <v>464.0733333333333</v>
+      </c>
+      <c r="N455" t="n">
+        <v>469.4714285714285</v>
+      </c>
+      <c r="O455" t="n">
+        <v>475.51</v>
+      </c>
+      <c r="P455" t="n">
+        <v>471.7633333333333</v>
+      </c>
+      <c r="Q455" t="n">
+        <v>467.27</v>
+      </c>
+      <c r="R455" t="n">
+        <v>484.09</v>
+      </c>
+      <c r="S455" t="n">
+        <v>498.8233333333333</v>
+      </c>
+      <c r="T455" t="n">
+        <v>505.2014285714286</v>
+      </c>
+      <c r="U455" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:07:17+00:00</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>405.2057142857143</v>
+      </c>
+      <c r="C456" t="n">
+        <v>409.7757142857143</v>
+      </c>
+      <c r="D456" t="n">
+        <v>419.0957142857143</v>
+      </c>
+      <c r="E456" t="n">
+        <v>428.3457142857143</v>
+      </c>
+      <c r="F456" t="n">
+        <v>430.0357142857143</v>
+      </c>
+      <c r="G456" t="n">
+        <v>424.0257142857143</v>
+      </c>
+      <c r="H456" t="n">
+        <v>429.9857142857143</v>
+      </c>
+      <c r="I456" t="n">
+        <v>435.5857142857143</v>
+      </c>
+      <c r="J456" t="n">
+        <v>440.1857142857143</v>
+      </c>
+      <c r="K456" t="n">
+        <v>440.9457142857143</v>
+      </c>
+      <c r="L456" t="n">
+        <v>450.1257142857143</v>
+      </c>
+      <c r="M456" t="n">
+        <v>457.6833333333333</v>
+      </c>
+      <c r="N456" t="n">
+        <v>464.3657142857143</v>
+      </c>
+      <c r="O456" t="n">
+        <v>466.52</v>
+      </c>
+      <c r="P456" t="n">
+        <v>458.1933333333333</v>
+      </c>
+      <c r="Q456" t="n">
+        <v>461.22</v>
+      </c>
+      <c r="R456" t="inlineStr"/>
+      <c r="S456" t="inlineStr"/>
+      <c r="T456" t="inlineStr"/>
+      <c r="U456" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -29210,7 +29549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B483"/>
+  <dimension ref="A1:B488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34048,6 +34387,56 @@
       </c>
       <c r="B483" t="n">
         <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>-0.2</v>
       </c>
     </row>
   </sheetData>
@@ -34216,28 +34605,28 @@
         <v>0.0417</v>
       </c>
       <c r="I2" t="n">
-        <v>2.217968047142712</v>
+        <v>2.215644203940559</v>
       </c>
       <c r="J2" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K2" t="n">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5854984254635467</v>
+        <v>0.5915838496230186</v>
       </c>
       <c r="M2" t="n">
-        <v>11.14773631914222</v>
+        <v>11.04111997804679</v>
       </c>
       <c r="N2" t="n">
-        <v>191.6447282234417</v>
+        <v>189.3598729986208</v>
       </c>
       <c r="O2" t="n">
-        <v>13.84358075872864</v>
+        <v>13.76080931481215</v>
       </c>
       <c r="P2" t="n">
-        <v>352.8558481133258</v>
+        <v>352.8779357877871</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -34293,28 +34682,28 @@
         <v>0.0422</v>
       </c>
       <c r="I3" t="n">
-        <v>2.329176208827593</v>
+        <v>2.330857606696399</v>
       </c>
       <c r="J3" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K3" t="n">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5952101181125021</v>
+        <v>0.6019166980148716</v>
       </c>
       <c r="M3" t="n">
-        <v>11.36799472745563</v>
+        <v>11.26551149037674</v>
       </c>
       <c r="N3" t="n">
-        <v>203.0867252315713</v>
+        <v>200.7445501795987</v>
       </c>
       <c r="O3" t="n">
-        <v>14.25084998277546</v>
+        <v>14.16843499401394</v>
       </c>
       <c r="P3" t="n">
-        <v>353.0955237349872</v>
+        <v>353.0795651378513</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -34370,28 +34759,28 @@
         <v>0.041</v>
       </c>
       <c r="I4" t="n">
-        <v>2.597148715851986</v>
+        <v>2.60072551675388</v>
       </c>
       <c r="J4" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K4" t="n">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="L4" t="n">
-        <v>0.639996561468573</v>
+        <v>0.6468564148248059</v>
       </c>
       <c r="M4" t="n">
-        <v>11.69010964315287</v>
+        <v>11.5810768532664</v>
       </c>
       <c r="N4" t="n">
-        <v>209.5394728915132</v>
+        <v>207.0919543412328</v>
       </c>
       <c r="O4" t="n">
-        <v>14.47547833031825</v>
+        <v>14.3906898493864</v>
       </c>
       <c r="P4" t="n">
-        <v>354.7642997910829</v>
+        <v>354.7305672371558</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -34447,28 +34836,28 @@
         <v>0.0427</v>
       </c>
       <c r="I5" t="n">
-        <v>2.879394204475336</v>
+        <v>2.879205849445804</v>
       </c>
       <c r="J5" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K5" t="n">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6714814389913291</v>
+        <v>0.6774483403523073</v>
       </c>
       <c r="M5" t="n">
-        <v>12.15919717491902</v>
+        <v>12.03222475793473</v>
       </c>
       <c r="N5" t="n">
-        <v>224.552777033416</v>
+        <v>221.8408874746626</v>
       </c>
       <c r="O5" t="n">
-        <v>14.98508515269153</v>
+        <v>14.89432400193653</v>
       </c>
       <c r="P5" t="n">
-        <v>356.2828613572383</v>
+        <v>356.2846688585915</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -34524,28 +34913,28 @@
         <v>0.0423</v>
       </c>
       <c r="I6" t="n">
-        <v>3.184573129895205</v>
+        <v>3.175469946249904</v>
       </c>
       <c r="J6" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K6" t="n">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7003347312313657</v>
+        <v>0.7043934604855218</v>
       </c>
       <c r="M6" t="n">
-        <v>12.53318439289858</v>
+        <v>12.44986220800151</v>
       </c>
       <c r="N6" t="n">
-        <v>240.5087455967461</v>
+        <v>237.9212861321173</v>
       </c>
       <c r="O6" t="n">
-        <v>15.50834438606346</v>
+        <v>15.42469727845954</v>
       </c>
       <c r="P6" t="n">
-        <v>353.168625143269</v>
+        <v>353.2550319003366</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -34601,28 +34990,28 @@
         <v>0.0394</v>
       </c>
       <c r="I7" t="n">
-        <v>3.312751093727019</v>
+        <v>3.300794616308064</v>
       </c>
       <c r="J7" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K7" t="n">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6971951637247712</v>
+        <v>0.7004628421586354</v>
       </c>
       <c r="M7" t="n">
-        <v>13.39483609289916</v>
+        <v>13.32451615940155</v>
       </c>
       <c r="N7" t="n">
-        <v>266.5677615466213</v>
+        <v>264.0178774092241</v>
       </c>
       <c r="O7" t="n">
-        <v>16.3269029992409</v>
+        <v>16.24862693919779</v>
       </c>
       <c r="P7" t="n">
-        <v>351.3606298949738</v>
+        <v>351.4745302917978</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -34678,28 +35067,28 @@
         <v>0.0449</v>
       </c>
       <c r="I8" t="n">
-        <v>3.196350135901039</v>
+        <v>3.186675139723949</v>
       </c>
       <c r="J8" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K8" t="n">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6592161524829887</v>
+        <v>0.6632604732913734</v>
       </c>
       <c r="M8" t="n">
-        <v>14.00755063440193</v>
+        <v>13.90405841930721</v>
       </c>
       <c r="N8" t="n">
-        <v>296.2346826114838</v>
+        <v>293.0018210636371</v>
       </c>
       <c r="O8" t="n">
-        <v>17.21146950761276</v>
+        <v>17.11729596237785</v>
       </c>
       <c r="P8" t="n">
-        <v>355.0967888884169</v>
+        <v>355.1886750261489</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -34755,28 +35144,28 @@
         <v>0.0417</v>
       </c>
       <c r="I9" t="n">
-        <v>3.212967849707526</v>
+        <v>3.208067060501425</v>
       </c>
       <c r="J9" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K9" t="n">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6457748652732029</v>
+        <v>0.650645526743772</v>
       </c>
       <c r="M9" t="n">
-        <v>14.60799307665437</v>
+        <v>14.48543189136522</v>
       </c>
       <c r="N9" t="n">
-        <v>315.4931050777859</v>
+        <v>311.9413263852114</v>
       </c>
       <c r="O9" t="n">
-        <v>17.7621255788204</v>
+        <v>17.66186078490065</v>
       </c>
       <c r="P9" t="n">
-        <v>357.3122704564109</v>
+        <v>357.3591882099961</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -34832,28 +35221,28 @@
         <v>0.0425</v>
       </c>
       <c r="I10" t="n">
-        <v>3.359847905155876</v>
+        <v>3.359078760239174</v>
       </c>
       <c r="J10" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K10" t="n">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6570894602034355</v>
+        <v>0.6627567552388971</v>
       </c>
       <c r="M10" t="n">
-        <v>14.94286401485805</v>
+        <v>14.78589927002274</v>
       </c>
       <c r="N10" t="n">
-        <v>325.0291442427425</v>
+        <v>321.10124442615</v>
       </c>
       <c r="O10" t="n">
-        <v>18.02856467505782</v>
+        <v>17.91929810082275</v>
       </c>
       <c r="P10" t="n">
-        <v>358.1147131333493</v>
+        <v>358.1221850969708</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -34909,28 +35298,28 @@
         <v>0.041</v>
       </c>
       <c r="I11" t="n">
-        <v>3.537960667931345</v>
+        <v>3.532012961392243</v>
       </c>
       <c r="J11" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K11" t="n">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6496532356644712</v>
+        <v>0.6552062324960171</v>
       </c>
       <c r="M11" t="n">
-        <v>16.06597296873517</v>
+        <v>15.92055029205112</v>
       </c>
       <c r="N11" t="n">
-        <v>367.6228833684028</v>
+        <v>363.3967364977187</v>
       </c>
       <c r="O11" t="n">
-        <v>19.17349429207944</v>
+        <v>19.06296767289182</v>
       </c>
       <c r="P11" t="n">
-        <v>352.7175316936695</v>
+        <v>352.7746082843144</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -34986,28 +35375,28 @@
         <v>0.0449</v>
       </c>
       <c r="I12" t="n">
-        <v>3.925306861097672</v>
+        <v>3.919393801468648</v>
       </c>
       <c r="J12" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K12" t="n">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6619625588890059</v>
+        <v>0.6672003290846138</v>
       </c>
       <c r="M12" t="n">
-        <v>17.28743613495485</v>
+        <v>17.14626821203282</v>
       </c>
       <c r="N12" t="n">
-        <v>426.111180934513</v>
+        <v>421.8971150266068</v>
       </c>
       <c r="O12" t="n">
-        <v>20.6424606317782</v>
+        <v>20.54013425045238</v>
       </c>
       <c r="P12" t="n">
-        <v>349.2715384492265</v>
+        <v>349.3282283050628</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -35063,28 +35452,28 @@
         <v>0.0352</v>
       </c>
       <c r="I13" t="n">
-        <v>4.241453394495991</v>
+        <v>4.249786353336722</v>
       </c>
       <c r="J13" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K13" t="n">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6621177589117402</v>
+        <v>0.6685667924537929</v>
       </c>
       <c r="M13" t="n">
-        <v>18.52684793262362</v>
+        <v>18.33704682311869</v>
       </c>
       <c r="N13" t="n">
-        <v>502.4703972432179</v>
+        <v>496.4901534722453</v>
       </c>
       <c r="O13" t="n">
-        <v>22.41585147263467</v>
+        <v>22.28205900432555</v>
       </c>
       <c r="P13" t="n">
-        <v>349.4282862864517</v>
+        <v>349.3470751289341</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -35140,28 +35529,28 @@
         <v>0.0437</v>
       </c>
       <c r="I14" t="n">
-        <v>4.588870942730426</v>
+        <v>4.57518314815619</v>
       </c>
       <c r="J14" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K14" t="n">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6838473277347505</v>
+        <v>0.6886320163876738</v>
       </c>
       <c r="M14" t="n">
-        <v>19.1823173185463</v>
+        <v>18.99223707717361</v>
       </c>
       <c r="N14" t="n">
-        <v>528.1280080280575</v>
+        <v>521.6989798098789</v>
       </c>
       <c r="O14" t="n">
-        <v>22.9810358345323</v>
+        <v>22.84073071970069</v>
       </c>
       <c r="P14" t="n">
-        <v>350.3859581138614</v>
+        <v>350.5198231424019</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -35217,28 +35606,28 @@
         <v>0.0302</v>
       </c>
       <c r="I15" t="n">
-        <v>4.69043794931767</v>
+        <v>4.696218641418704</v>
       </c>
       <c r="J15" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K15" t="n">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6519438246869295</v>
+        <v>0.6582918036684238</v>
       </c>
       <c r="M15" t="n">
-        <v>20.67252490412929</v>
+        <v>20.46010968571434</v>
       </c>
       <c r="N15" t="n">
-        <v>642.029065661412</v>
+        <v>634.0487562985394</v>
       </c>
       <c r="O15" t="n">
-        <v>25.33829247722529</v>
+        <v>25.18032478540615</v>
       </c>
       <c r="P15" t="n">
-        <v>353.3983453836439</v>
+        <v>353.3416328591807</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -35294,28 +35683,28 @@
         <v>0.0355</v>
       </c>
       <c r="I16" t="n">
-        <v>4.305777901653589</v>
+        <v>4.309282952931865</v>
       </c>
       <c r="J16" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K16" t="n">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6702986953628958</v>
+        <v>0.6762839936636476</v>
       </c>
       <c r="M16" t="n">
-        <v>18.41748560481777</v>
+        <v>18.24187560992549</v>
       </c>
       <c r="N16" t="n">
-        <v>496.5142117509741</v>
+        <v>490.4190793691201</v>
       </c>
       <c r="O16" t="n">
-        <v>22.28259885540675</v>
+        <v>22.14540763610189</v>
       </c>
       <c r="P16" t="n">
-        <v>353.1586197117385</v>
+        <v>353.1241489438455</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -35371,28 +35760,28 @@
         <v>0.0367</v>
       </c>
       <c r="I17" t="n">
-        <v>4.993550111081738</v>
+        <v>4.98944122942532</v>
       </c>
       <c r="J17" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K17" t="n">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6866593575956121</v>
+        <v>0.6919854311690647</v>
       </c>
       <c r="M17" t="n">
-        <v>20.79277375788277</v>
+        <v>20.59358722233794</v>
       </c>
       <c r="N17" t="n">
-        <v>629.8058202969332</v>
+        <v>622.0490863873378</v>
       </c>
       <c r="O17" t="n">
-        <v>25.09593234563987</v>
+        <v>24.94091189967476</v>
       </c>
       <c r="P17" t="n">
-        <v>342.5703838690815</v>
+        <v>342.6102520157914</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -35448,28 +35837,28 @@
         <v>0.0383</v>
       </c>
       <c r="I18" t="n">
-        <v>6.444891367399316</v>
+        <v>6.461757661692373</v>
       </c>
       <c r="J18" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K18" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7067058648041236</v>
+        <v>0.7108798792587225</v>
       </c>
       <c r="M18" t="n">
-        <v>25.9487189760065</v>
+        <v>25.83315167377495</v>
       </c>
       <c r="N18" t="n">
-        <v>961.7045895166149</v>
+        <v>955.7174879891725</v>
       </c>
       <c r="O18" t="n">
-        <v>31.011362264767</v>
+        <v>30.91468078420304</v>
       </c>
       <c r="P18" t="n">
-        <v>322.5124865757373</v>
+        <v>322.3514292983804</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -35525,28 +35914,28 @@
         <v>0.0426</v>
       </c>
       <c r="I19" t="n">
-        <v>6.951635413085086</v>
+        <v>6.951311461765544</v>
       </c>
       <c r="J19" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K19" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="L19" t="n">
-        <v>0.720611192218822</v>
+        <v>0.724029866977889</v>
       </c>
       <c r="M19" t="n">
-        <v>27.03909311761736</v>
+        <v>26.85695603619828</v>
       </c>
       <c r="N19" t="n">
-        <v>1034.313403589897</v>
+        <v>1026.057683218508</v>
       </c>
       <c r="O19" t="n">
-        <v>32.16074320642944</v>
+        <v>32.03213516483889</v>
       </c>
       <c r="P19" t="n">
-        <v>327.8600984444113</v>
+        <v>327.8633109547524</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -35602,28 +35991,28 @@
         <v>0.0597</v>
       </c>
       <c r="I20" t="n">
-        <v>6.812085975406807</v>
+        <v>6.813611657978097</v>
       </c>
       <c r="J20" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K20" t="n">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7103621963259033</v>
+        <v>0.7141233396675655</v>
       </c>
       <c r="M20" t="n">
-        <v>26.8923154577663</v>
+        <v>26.70837060838123</v>
       </c>
       <c r="N20" t="n">
-        <v>1029.535695266788</v>
+        <v>1021.349950351001</v>
       </c>
       <c r="O20" t="n">
-        <v>32.0863786561648</v>
+        <v>31.95856614979779</v>
       </c>
       <c r="P20" t="n">
-        <v>331.9483795670637</v>
+        <v>331.9337617859543</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -35660,7 +36049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U451"/>
+  <dimension ref="A1:U456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79093,14 +79482,26 @@
           <t>-41.72630739323836,174.20984079310603</t>
         </is>
       </c>
-      <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>-41.726585459503944,174.21061061452113</t>
+        </is>
+      </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>-41.72681719497431,174.21144073892765</t>
+        </is>
+      </c>
       <c r="M451" t="inlineStr">
         <is>
           <t>-41.72684823400594,174.2123382494778</t>
         </is>
       </c>
-      <c r="N451" t="inlineStr"/>
+      <c r="N451" t="inlineStr">
+        <is>
+          <t>-41.72704044678453,174.21313091042148</t>
+        </is>
+      </c>
       <c r="O451" t="inlineStr">
         <is>
           <t>-41.72698621424236,174.21385236230185</t>
@@ -79132,6 +79533,517 @@
         </is>
       </c>
       <c r="U451" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:07:16+00:00</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>-41.723892842686155,174.20361919852073</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>-41.72426421724028,174.20436708370408</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>-41.7245583872096,174.20516203674526</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>-41.72481571073022,174.20594534901855</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>-41.72511820386676,174.2067127495032</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>-41.72541240345571,174.20751960785842</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>-41.725726135925754,174.20831211133364</t>
+        </is>
+      </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>-41.725992134561515,174.20911961780826</t>
+        </is>
+      </c>
+      <c r="J452" t="inlineStr">
+        <is>
+          <t>-41.7261931065306,174.20990376170485</t>
+        </is>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>-41.72643722271243,174.21068094510562</t>
+        </is>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>-41.726602073376526,174.2115383414582</t>
+        </is>
+      </c>
+      <c r="M452" t="inlineStr">
+        <is>
+          <t>-41.726712133764785,174.21239381891374</t>
+        </is>
+      </c>
+      <c r="N452" t="inlineStr">
+        <is>
+          <t>-41.726829429295236,174.21319914869028</t>
+        </is>
+      </c>
+      <c r="O452" t="inlineStr">
+        <is>
+          <t>-41.72685633925696,174.2138666673472</t>
+        </is>
+      </c>
+      <c r="P452" t="inlineStr">
+        <is>
+          <t>-41.72695604627792,174.21457960543614</t>
+        </is>
+      </c>
+      <c r="Q452" t="inlineStr">
+        <is>
+          <t>-41.726853017493234,174.21530581067657</t>
+        </is>
+      </c>
+      <c r="R452" t="inlineStr">
+        <is>
+          <t>-41.726432706134624,174.2160980348847</t>
+        </is>
+      </c>
+      <c r="S452" t="inlineStr">
+        <is>
+          <t>-41.726324904140895,174.21707084628915</t>
+        </is>
+      </c>
+      <c r="T452" t="inlineStr">
+        <is>
+          <t>-41.72626180497007,174.2178991381694</t>
+        </is>
+      </c>
+      <c r="U452" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>-41.723859411443264,174.2036484820029</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>-41.724188996658455,174.2044329712733</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>-41.724502614397345,174.2052087270056</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>-41.724767146200236,174.20598139396452</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>-41.72503540864414,174.20676964338585</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>-41.72533399435476,174.20757342927826</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>-41.72565881433518,174.20835817391819</t>
+        </is>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>-41.725909463733224,174.2091739008299</t>
+        </is>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>-41.72615081687242,174.20992706199655</t>
+        </is>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>-41.72632749981949,174.21073300264808</t>
+        </is>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>-41.72648713068164,174.21159049167747</t>
+        </is>
+      </c>
+      <c r="M453" t="inlineStr">
+        <is>
+          <t>-41.72664220332035,174.2124223712708</t>
+        </is>
+      </c>
+      <c r="N453" t="inlineStr">
+        <is>
+          <t>-41.72675581824244,174.21322295273012</t>
+        </is>
+      </c>
+      <c r="O453" t="inlineStr">
+        <is>
+          <t>-41.72674674882048,174.21387873811597</t>
+        </is>
+      </c>
+      <c r="P453" t="inlineStr">
+        <is>
+          <t>-41.72686707156175,174.2145741360546</t>
+        </is>
+      </c>
+      <c r="Q453" t="inlineStr">
+        <is>
+          <t>-41.726759735056994,174.21528585631762</t>
+        </is>
+      </c>
+      <c r="R453" t="inlineStr">
+        <is>
+          <t>-41.72633474905511,174.2160753063373</t>
+        </is>
+      </c>
+      <c r="S453" t="inlineStr">
+        <is>
+          <t>-41.726252159188334,174.217058735439</t>
+        </is>
+      </c>
+      <c r="T453" t="inlineStr">
+        <is>
+          <t>-41.72614362186886,174.2178738718787</t>
+        </is>
+      </c>
+      <c r="U453" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:07:13+00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>-41.72389893087184,174.20361386568257</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>-41.724235669350406,174.2043920895291</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>-41.724533045842236,174.20518325130575</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>-41.72481050457714,174.20594921306602</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>-41.725127881228644,174.20670609955943</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>-41.725426728302665,174.20750977500953</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>-41.725720915068344,174.20831568353745</t>
+        </is>
+      </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>-41.72600901275296,174.20910853529205</t>
+        </is>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>-41.72620083664197,174.2098995026494</t>
+        </is>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>-41.7264058975623,174.2106958072037</t>
+        </is>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>-41.726590294065815,174.21154368581398</t>
+        </is>
+      </c>
+      <c r="M454" t="inlineStr">
+        <is>
+          <t>-41.72668506299013,174.21240487182433</t>
+        </is>
+      </c>
+      <c r="N454" t="inlineStr">
+        <is>
+          <t>-41.72682057646292,174.21320201148566</t>
+        </is>
+      </c>
+      <c r="O454" t="inlineStr">
+        <is>
+          <t>-41.72683479813945,174.21386903998277</t>
+        </is>
+      </c>
+      <c r="P454" t="inlineStr">
+        <is>
+          <t>-41.726953407324466,174.21457944321628</t>
+        </is>
+      </c>
+      <c r="Q454" t="inlineStr">
+        <is>
+          <t>-41.726905661153495,174.21531707188598</t>
+        </is>
+      </c>
+      <c r="R454" t="inlineStr"/>
+      <c r="S454" t="inlineStr"/>
+      <c r="T454" t="inlineStr"/>
+      <c r="U454" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:07:20+00:00</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>-41.723904448962166,174.20360903220822</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>-41.72421475860932,174.20441040576375</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>-41.7244919437712,174.20521765991907</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>-41.72480611926453,174.20595246787875</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>-41.72509795690273,174.2067266624997</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>-41.72540384516017,174.2075254824338</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>-41.72569328802946,174.2083345864399</t>
+        </is>
+      </c>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>-41.72596192236532,174.2091394556496</t>
+        </is>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>-41.72618071456713,174.20991058929624</t>
+        </is>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>-41.726377578849096,174.2107092428963</t>
+        </is>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>-41.72651621961512,174.21157729386468</t>
+        </is>
+      </c>
+      <c r="M455" t="inlineStr">
+        <is>
+          <t>-41.72665839411354,174.21241576063193</t>
+        </is>
+      </c>
+      <c r="N455" t="inlineStr">
+        <is>
+          <t>-41.72678611543702,174.21321315535434</t>
+        </is>
+      </c>
+      <c r="O455" t="inlineStr">
+        <is>
+          <t>-41.72684018341884,174.213868446824</t>
+        </is>
+      </c>
+      <c r="P455" t="inlineStr">
+        <is>
+          <t>-41.72685843498657,174.21457360515504</t>
+        </is>
+      </c>
+      <c r="Q455" t="inlineStr">
+        <is>
+          <t>-41.72687613801992,174.2153107564756</t>
+        </is>
+      </c>
+      <c r="R455" t="inlineStr">
+        <is>
+          <t>-41.72656668727363,174.21612912205515</t>
+        </is>
+      </c>
+      <c r="S455" t="inlineStr">
+        <is>
+          <t>-41.726372715625516,174.217078806139</t>
+        </is>
+      </c>
+      <c r="T455" t="inlineStr">
+        <is>
+          <t>-41.72622340149748,174.21789092790428</t>
+        </is>
+      </c>
+      <c r="U455" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:07:17+00:00</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>-41.72392068053668,174.20359481443984</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>-41.72425900031282,174.20437165334593</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>-41.724554550581324,174.20516524858516</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>-41.72481387789449,174.20594670936362</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>-41.7251016860047,174.20672409999364</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>-41.72546179671451,174.2074857033605</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>-41.7257252314351,174.2083127302023</t>
+        </is>
+      </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>-41.72598516162849,174.20912419635638</t>
+        </is>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>-41.72621722447755,174.20989047344855</t>
+        </is>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>-41.726426336495614,174.21068611003142</t>
+        </is>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>-41.726574507109206,174.21155084846356</t>
+        </is>
+      </c>
+      <c r="M456" t="inlineStr">
+        <is>
+          <t>-41.72671342558328,174.21239329146817</t>
+        </is>
+      </c>
+      <c r="N456" t="inlineStr">
+        <is>
+          <t>-41.72683080473526,174.21319870390562</t>
+        </is>
+      </c>
+      <c r="O456" t="inlineStr">
+        <is>
+          <t>-41.7269208728542,174.21385955931794</t>
+        </is>
+      </c>
+      <c r="P456" t="inlineStr">
+        <is>
+          <t>-41.72698051657367,174.21458110965747</t>
+        </is>
+      </c>
+      <c r="Q456" t="inlineStr">
+        <is>
+          <t>-41.726929937705656,174.215322264984</t>
+        </is>
+      </c>
+      <c r="R456" t="inlineStr"/>
+      <c r="S456" t="inlineStr"/>
+      <c r="T456" t="inlineStr"/>
+      <c r="U456" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0364/nzd0364.xlsx
+++ b/data/nzd0364/nzd0364.xlsx
@@ -34450,7 +34450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34541,35 +34541,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -34628,27 +34633,28 @@
       <c r="P2" t="n">
         <v>352.8779357877871</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.20092220006916 -41.72697166986253, 174.20684550067813 -41.72020931124239)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.2009222000692</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-41.72697166986253</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.2068455006781</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-41.72020931124239</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.2038838503736</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-41.72359049055246</v>
       </c>
     </row>
@@ -34705,27 +34711,28 @@
       <c r="P3" t="n">
         <v>353.0795651378513</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.2016689071173 -41.72734441097658, 174.2075921767048 -41.7205820404568)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.2016689071173</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-41.72734441097658</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.2075921767048</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-41.7205820404568</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.2046305419111</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-41.72396322571669</v>
       </c>
     </row>
@@ -34782,27 +34789,28 @@
       <c r="P4" t="n">
         <v>354.7305672371558</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.20248827667518 -41.72775207749308, 174.20822444975968 -41.720900008145385)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.2024882766752</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-41.72775207749308</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.2082244497597</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-41.72090000814539</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.2053563632174</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-41.72432604281923</v>
       </c>
     </row>
@@ -34859,27 +34867,28 @@
       <c r="P5" t="n">
         <v>356.2846688585915</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.20344419602205 -41.72818539209897, 174.2086904292514 -41.72111693616521)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.203444196022</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-41.72818539209897</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.2086904292514</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-41.72111693616521</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.2060673126367</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-41.72465116413209</v>
       </c>
     </row>
@@ -34936,27 +34945,28 @@
       <c r="P6" t="n">
         <v>353.2550319003366</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.2043577837091 -41.72854507614131, 174.20929882429783 -41.721354560527125)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.2043577837091</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-41.72854507614131</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.2092988242978</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-41.72135456052712</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.2068283040035</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-41.72494981833422</v>
       </c>
     </row>
@@ -35013,27 +35023,28 @@
       <c r="P7" t="n">
         <v>351.4745302917978</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.2051544556716 -41.72885783736957, 174.21009125160418 -41.721665696722745)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.2051544556716</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-41.72885783736957</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.2100912516042</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-41.72166569672275</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.2076228536379</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-41.72526176704616</v>
       </c>
     </row>
@@ -35090,27 +35101,28 @@
       <c r="P8" t="n">
         <v>355.1886750261489</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.20595471610463 -41.7291713172333, 174.21087896920218 -41.72197437151684)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.2059547161046</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-41.7291713172333</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.2108789692022</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-41.72197437151684</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.2084168426534</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-41.72557284437507</v>
       </c>
     </row>
@@ -35167,27 +35179,28 @@
       <c r="P9" t="n">
         <v>357.3591882099961</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.20681273916796 -41.72950520030955, 174.2115776245654 -41.722248455825046)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.206812739168</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-41.72950520030955</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.2115776245654</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-41.72224845582505</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.2091951818667</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-41.7258768280673</v>
       </c>
     </row>
@@ -35244,27 +35257,28 @@
       <c r="P10" t="n">
         <v>358.1221850969708</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.20787137063368 -41.729881636484585, 174.21198983096994 -41.72240668978131)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.2078713706337</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-41.72988163648458</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.2119898309699</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-41.72240668978131</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.2099306008018</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-41.72614416313294</v>
       </c>
     </row>
@@ -35321,27 +35335,28 @@
       <c r="P11" t="n">
         <v>352.7746082843144</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.20891071295816 -41.73016815089268, 174.21252567472888 -41.722548806068694)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.2089107129582</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-41.73016815089268</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.2125256747289</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-41.72254880606869</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.2107181938435</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-41.72635847848069</v>
       </c>
     </row>
@@ -35398,27 +35413,28 @@
       <c r="P12" t="n">
         <v>349.3282283050628</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.2098093394661 -41.73041267354751, 174.21328294473605 -41.72275661685612)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.2098093394661</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-41.73041267354751</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.2132829447361</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-41.72275661685612</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.2115461421011</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-41.72658464520181</v>
       </c>
     </row>
@@ -35475,27 +35491,28 @@
       <c r="P13" t="n">
         <v>349.3470751289341</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.2107838419309 -41.730655039566976, 174.21394095972443 -41.72292265278011)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.2107838419309</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-41.73065503956698</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.2139409597244</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-41.72292265278011</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.2123624008277</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-41.72678884617355</v>
       </c>
     </row>
@@ -35552,27 +35569,28 @@
       <c r="P14" t="n">
         <v>350.5198231424019</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.21188426092573 -41.73089529725093, 174.21442548748186 -41.723036910200825)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.2118842609257</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-41.73089529725093</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.2144254874819</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-41.72303691020083</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.2131548742038</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-41.72696610372588</v>
       </c>
     </row>
@@ -35629,27 +35647,28 @@
       <c r="P15" t="n">
         <v>353.3416328591807</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (174.2133983307936 -41.73110810498432, 174.21428585817733 -41.723050311805295)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>174.2133983307936</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-41.73110810498432</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>174.2142858581773</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-41.7230503118053</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>174.2138420944855</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-41.72707920839481</v>
       </c>
     </row>
@@ -35706,27 +35725,28 @@
       <c r="P16" t="n">
         <v>353.1241489438455</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (174.21483452034434 -41.7311026199008, 174.21433804187336 -41.72302606145815)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>174.2148345203443</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-41.7311026199008</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>174.2143380418734</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-41.72302606145815</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>174.2145862811088</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-41.72706434067948</v>
       </c>
     </row>
@@ -35783,27 +35803,28 @@
       <c r="P17" t="n">
         <v>342.6102520157914</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (174.21619967240633 -41.731031335582294, 174.2144918860367 -41.72304785521895)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>174.2161996724063</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-41.73103133558229</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>174.2144918860367</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-41.72304785521895</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>174.2153457792215</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-41.72703959540063</v>
       </c>
     </row>
@@ -35860,27 +35881,28 @@
       <c r="P18" t="n">
         <v>322.3514292983804</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (174.21712581568013 -41.73086197362668, 174.21527748286096 -41.722896031300756)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>174.2171258156801</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-41.73086197362668</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>174.215277482861</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-41.72289603130076</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>174.2162016492705</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-41.72687900246372</v>
       </c>
     </row>
@@ -35937,27 +35959,28 @@
       <c r="P19" t="n">
         <v>327.8633109547524</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (174.21782102219433 -41.73083055829615, 174.21648528431624 -41.722807467401005)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>174.2178210221943</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-41.73083055829615</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>174.2164852843162</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-41.722807467401</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>174.2171531532553</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-41.72681901284858</v>
       </c>
     </row>
@@ -36014,27 +36037,28 @@
       <c r="P20" t="n">
         <v>331.9337617859543</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (174.2188514630917 -41.73071596602765, 174.21714462402747 -41.7227323634579)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>174.2188514630917</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-41.73071596602765</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>174.2171446240275</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-41.7227323634579</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>174.2179980435596</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-41.72672416474278</v>
       </c>
     </row>

--- a/data/nzd0364/nzd0364.xlsx
+++ b/data/nzd0364/nzd0364.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U456"/>
+  <dimension ref="A1:U459"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29538,6 +29538,213 @@
         </is>
       </c>
     </row>
+    <row r="457">
+      <c r="A457" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:07+00:00</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>419.2757142857143</v>
+      </c>
+      <c r="C457" t="n">
+        <v>423.1357142857143</v>
+      </c>
+      <c r="D457" t="n">
+        <v>434.0157142857143</v>
+      </c>
+      <c r="E457" t="n">
+        <v>448.7757142857143</v>
+      </c>
+      <c r="F457" t="n">
+        <v>449.0157142857143</v>
+      </c>
+      <c r="G457" t="n">
+        <v>448.2557142857143</v>
+      </c>
+      <c r="H457" t="n">
+        <v>448.6157142857143</v>
+      </c>
+      <c r="I457" t="n">
+        <v>449.6357142857143</v>
+      </c>
+      <c r="J457" t="n">
+        <v>457.0757142857143</v>
+      </c>
+      <c r="K457" t="n">
+        <v>459.2257142857143</v>
+      </c>
+      <c r="L457" t="n">
+        <v>466.6757142857143</v>
+      </c>
+      <c r="M457" t="n">
+        <v>471.33</v>
+      </c>
+      <c r="N457" t="n">
+        <v>480.0857142857143</v>
+      </c>
+      <c r="O457" t="n">
+        <v>476.18</v>
+      </c>
+      <c r="P457" t="n">
+        <v>467.26</v>
+      </c>
+      <c r="Q457" t="n">
+        <v>467.98</v>
+      </c>
+      <c r="R457" t="n">
+        <v>486.06</v>
+      </c>
+      <c r="S457" t="n">
+        <v>503.5</v>
+      </c>
+      <c r="T457" t="n">
+        <v>505.3157142857143</v>
+      </c>
+      <c r="U457" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>413.96</v>
+      </c>
+      <c r="C458" t="n">
+        <v>420.01</v>
+      </c>
+      <c r="D458" t="n">
+        <v>424.13</v>
+      </c>
+      <c r="E458" t="n">
+        <v>434.55</v>
+      </c>
+      <c r="F458" t="n">
+        <v>441.37</v>
+      </c>
+      <c r="G458" t="n">
+        <v>443.51</v>
+      </c>
+      <c r="H458" t="n">
+        <v>444.33</v>
+      </c>
+      <c r="I458" t="n">
+        <v>443.65</v>
+      </c>
+      <c r="J458" t="n">
+        <v>447.57</v>
+      </c>
+      <c r="K458" t="n">
+        <v>451.31</v>
+      </c>
+      <c r="L458" t="n">
+        <v>457.3</v>
+      </c>
+      <c r="M458" t="n">
+        <v>465.5833333333333</v>
+      </c>
+      <c r="N458" t="n">
+        <v>474.29</v>
+      </c>
+      <c r="O458" t="n">
+        <v>489.49</v>
+      </c>
+      <c r="P458" t="n">
+        <v>469.3733333333333</v>
+      </c>
+      <c r="Q458" t="n">
+        <v>473.2000000000001</v>
+      </c>
+      <c r="R458" t="n">
+        <v>500.09</v>
+      </c>
+      <c r="S458" t="n">
+        <v>501.4633333333333</v>
+      </c>
+      <c r="T458" t="n">
+        <v>505.57</v>
+      </c>
+      <c r="U458" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:48+00:00</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>422.67</v>
+      </c>
+      <c r="C459" t="n">
+        <v>422.94</v>
+      </c>
+      <c r="D459" t="n">
+        <v>430.57</v>
+      </c>
+      <c r="E459" t="n">
+        <v>439.34</v>
+      </c>
+      <c r="F459" t="n">
+        <v>444.02</v>
+      </c>
+      <c r="G459" t="n">
+        <v>445.64</v>
+      </c>
+      <c r="H459" t="n">
+        <v>451.41</v>
+      </c>
+      <c r="I459" t="n">
+        <v>456.03</v>
+      </c>
+      <c r="J459" t="n">
+        <v>456.31</v>
+      </c>
+      <c r="K459" t="n">
+        <v>457.65</v>
+      </c>
+      <c r="L459" t="n">
+        <v>463.67</v>
+      </c>
+      <c r="M459" t="n">
+        <v>463.9833333333333</v>
+      </c>
+      <c r="N459" t="n">
+        <v>475.48</v>
+      </c>
+      <c r="O459" t="n">
+        <v>474.54</v>
+      </c>
+      <c r="P459" t="n">
+        <v>466.5733333333333</v>
+      </c>
+      <c r="Q459" t="n">
+        <v>467.33</v>
+      </c>
+      <c r="R459" t="n">
+        <v>479.19</v>
+      </c>
+      <c r="S459" t="n">
+        <v>500.4433333333333</v>
+      </c>
+      <c r="T459" t="n">
+        <v>505.89</v>
+      </c>
+      <c r="U459" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29549,7 +29756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B488"/>
+  <dimension ref="A1:B491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34437,6 +34644,36 @@
       </c>
       <c r="B488" t="n">
         <v>-0.2</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>-0.35</v>
       </c>
     </row>
   </sheetData>
@@ -34610,28 +34847,28 @@
         <v>0.0417</v>
       </c>
       <c r="I2" t="n">
-        <v>2.215644203940559</v>
+        <v>2.228489274933346</v>
       </c>
       <c r="J2" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K2" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5915838496230186</v>
+        <v>0.597505023464574</v>
       </c>
       <c r="M2" t="n">
-        <v>11.04111997804679</v>
+        <v>11.01582961861168</v>
       </c>
       <c r="N2" t="n">
-        <v>189.3598729986208</v>
+        <v>188.6062712321639</v>
       </c>
       <c r="O2" t="n">
-        <v>13.76080931481215</v>
+        <v>13.73339984243391</v>
       </c>
       <c r="P2" t="n">
-        <v>352.8779357877871</v>
+        <v>352.7553755477193</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34688,28 +34925,28 @@
         <v>0.0422</v>
       </c>
       <c r="I3" t="n">
-        <v>2.330857606696399</v>
+        <v>2.343899833194285</v>
       </c>
       <c r="J3" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K3" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6019166980148716</v>
+        <v>0.607741027155942</v>
       </c>
       <c r="M3" t="n">
-        <v>11.26551149037674</v>
+        <v>11.2375345100891</v>
       </c>
       <c r="N3" t="n">
-        <v>200.7445501795987</v>
+        <v>199.862886786044</v>
       </c>
       <c r="O3" t="n">
-        <v>14.16843499401394</v>
+        <v>14.13728710842515</v>
       </c>
       <c r="P3" t="n">
-        <v>353.0795651378513</v>
+        <v>352.954767090662</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34766,28 +35003,28 @@
         <v>0.041</v>
       </c>
       <c r="I4" t="n">
-        <v>2.60072551675388</v>
+        <v>2.612407211985891</v>
       </c>
       <c r="J4" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K4" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6468564148248059</v>
+        <v>0.6520223128539839</v>
       </c>
       <c r="M4" t="n">
-        <v>11.5810768532664</v>
+        <v>11.54373793364419</v>
       </c>
       <c r="N4" t="n">
-        <v>207.0919543412328</v>
+        <v>206.1372045978999</v>
       </c>
       <c r="O4" t="n">
-        <v>14.3906898493864</v>
+        <v>14.35747904744771</v>
       </c>
       <c r="P4" t="n">
-        <v>354.7305672371558</v>
+        <v>354.6196656348749</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34844,28 +35081,28 @@
         <v>0.0427</v>
       </c>
       <c r="I5" t="n">
-        <v>2.879205849445804</v>
+        <v>2.894473828050034</v>
       </c>
       <c r="J5" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K5" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6774483403523073</v>
+        <v>0.6822581667219916</v>
       </c>
       <c r="M5" t="n">
-        <v>12.03222475793473</v>
+        <v>12.00521682573608</v>
       </c>
       <c r="N5" t="n">
-        <v>221.8408874746626</v>
+        <v>221.2760686665696</v>
       </c>
       <c r="O5" t="n">
-        <v>14.89432400193653</v>
+        <v>14.87535104347355</v>
       </c>
       <c r="P5" t="n">
-        <v>356.2846688585915</v>
+        <v>356.1399865173944</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34922,28 +35159,28 @@
         <v>0.0423</v>
       </c>
       <c r="I6" t="n">
-        <v>3.175469946249904</v>
+        <v>3.189516417550608</v>
       </c>
       <c r="J6" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K6" t="n">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7043934604855218</v>
+        <v>0.7088271655801865</v>
       </c>
       <c r="M6" t="n">
-        <v>12.44986220800151</v>
+        <v>12.42189911735268</v>
       </c>
       <c r="N6" t="n">
-        <v>237.9212861321173</v>
+        <v>236.9566128638105</v>
       </c>
       <c r="O6" t="n">
-        <v>15.42469727845954</v>
+        <v>15.39339510516801</v>
       </c>
       <c r="P6" t="n">
-        <v>353.2550319003366</v>
+        <v>353.1207502525537</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -35000,28 +35237,28 @@
         <v>0.0394</v>
       </c>
       <c r="I7" t="n">
-        <v>3.300794616308064</v>
+        <v>3.313656481316391</v>
       </c>
       <c r="J7" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K7" t="n">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7004628421586354</v>
+        <v>0.7047030253115791</v>
       </c>
       <c r="M7" t="n">
-        <v>13.32451615940155</v>
+        <v>13.28654331612089</v>
       </c>
       <c r="N7" t="n">
-        <v>264.0178774092241</v>
+        <v>262.7829544494985</v>
       </c>
       <c r="O7" t="n">
-        <v>16.24862693919779</v>
+        <v>16.21058155802865</v>
       </c>
       <c r="P7" t="n">
-        <v>351.4745302917978</v>
+        <v>351.3511816105197</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -35078,28 +35315,28 @@
         <v>0.0449</v>
       </c>
       <c r="I8" t="n">
-        <v>3.186675139723949</v>
+        <v>3.201648704199821</v>
       </c>
       <c r="J8" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K8" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6632604732913734</v>
+        <v>0.6679996609906673</v>
       </c>
       <c r="M8" t="n">
-        <v>13.90405841930721</v>
+        <v>13.87182598577295</v>
       </c>
       <c r="N8" t="n">
-        <v>293.0018210636371</v>
+        <v>291.8046710137837</v>
       </c>
       <c r="O8" t="n">
-        <v>17.11729596237785</v>
+        <v>17.08229115235376</v>
       </c>
       <c r="P8" t="n">
-        <v>355.1886750261489</v>
+        <v>355.04527929439</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35156,28 +35393,28 @@
         <v>0.0417</v>
       </c>
       <c r="I9" t="n">
-        <v>3.208067060501425</v>
+        <v>3.221700791465236</v>
       </c>
       <c r="J9" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K9" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L9" t="n">
-        <v>0.650645526743772</v>
+        <v>0.6553383600618266</v>
       </c>
       <c r="M9" t="n">
-        <v>14.48543189136522</v>
+        <v>14.4473028851173</v>
       </c>
       <c r="N9" t="n">
-        <v>311.9413263852114</v>
+        <v>310.5605407499709</v>
       </c>
       <c r="O9" t="n">
-        <v>17.66186078490065</v>
+        <v>17.62272795993773</v>
       </c>
       <c r="P9" t="n">
-        <v>357.3591882099961</v>
+        <v>357.2276031188796</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35234,28 +35471,28 @@
         <v>0.0425</v>
       </c>
       <c r="I10" t="n">
-        <v>3.359078760239174</v>
+        <v>3.371989674086427</v>
       </c>
       <c r="J10" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K10" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6627567552388971</v>
+        <v>0.6673900301049592</v>
       </c>
       <c r="M10" t="n">
-        <v>14.78589927002274</v>
+        <v>14.74063140575916</v>
       </c>
       <c r="N10" t="n">
-        <v>321.10124442615</v>
+        <v>319.4763252548497</v>
       </c>
       <c r="O10" t="n">
-        <v>17.91929810082275</v>
+        <v>17.87390067262459</v>
       </c>
       <c r="P10" t="n">
-        <v>358.1221850969708</v>
+        <v>357.9969804379662</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35312,28 +35549,28 @@
         <v>0.041</v>
       </c>
       <c r="I11" t="n">
-        <v>3.532012961392243</v>
+        <v>3.549952541698072</v>
       </c>
       <c r="J11" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K11" t="n">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6552062324960171</v>
+        <v>0.6602362232348948</v>
       </c>
       <c r="M11" t="n">
-        <v>15.92055029205112</v>
+        <v>15.89516335764527</v>
       </c>
       <c r="N11" t="n">
-        <v>363.3967364977187</v>
+        <v>361.8961241655344</v>
       </c>
       <c r="O11" t="n">
-        <v>19.06296767289182</v>
+        <v>19.02356759825912</v>
       </c>
       <c r="P11" t="n">
-        <v>352.7746082843144</v>
+        <v>352.598715931272</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35390,28 +35627,28 @@
         <v>0.0449</v>
       </c>
       <c r="I12" t="n">
-        <v>3.919393801468648</v>
+        <v>3.937679423298249</v>
       </c>
       <c r="J12" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K12" t="n">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6672003290846138</v>
+        <v>0.6721023306478937</v>
       </c>
       <c r="M12" t="n">
-        <v>17.14626821203282</v>
+        <v>17.11271179415878</v>
       </c>
       <c r="N12" t="n">
-        <v>421.8971150266068</v>
+        <v>419.940800554071</v>
       </c>
       <c r="O12" t="n">
-        <v>20.54013425045238</v>
+        <v>20.49245716243103</v>
       </c>
       <c r="P12" t="n">
-        <v>349.3282283050628</v>
+        <v>349.1480877618835</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35468,28 +35705,28 @@
         <v>0.0352</v>
       </c>
       <c r="I13" t="n">
-        <v>4.249786353336722</v>
+        <v>4.261537858408904</v>
       </c>
       <c r="J13" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K13" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6685667924537929</v>
+        <v>0.6728858790019689</v>
       </c>
       <c r="M13" t="n">
-        <v>18.33704682311869</v>
+        <v>18.25559627855</v>
       </c>
       <c r="N13" t="n">
-        <v>496.4901534722453</v>
+        <v>493.3927192900661</v>
       </c>
       <c r="O13" t="n">
-        <v>22.28205900432555</v>
+        <v>22.21244514433443</v>
       </c>
       <c r="P13" t="n">
-        <v>349.3470751289341</v>
+        <v>349.2316921135794</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35546,28 +35783,28 @@
         <v>0.0437</v>
       </c>
       <c r="I14" t="n">
-        <v>4.57518314815619</v>
+        <v>4.587766356799377</v>
       </c>
       <c r="J14" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K14" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6886320163876738</v>
+        <v>0.6929380383022923</v>
       </c>
       <c r="M14" t="n">
-        <v>18.99223707717361</v>
+        <v>18.90356361522229</v>
       </c>
       <c r="N14" t="n">
-        <v>521.6989798098789</v>
+        <v>518.178980011121</v>
       </c>
       <c r="O14" t="n">
-        <v>22.84073071970069</v>
+        <v>22.76354497900362</v>
       </c>
       <c r="P14" t="n">
-        <v>350.5198231424019</v>
+        <v>350.3948127916598</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35624,28 +35861,28 @@
         <v>0.0302</v>
       </c>
       <c r="I15" t="n">
-        <v>4.696218641418704</v>
+        <v>4.705095690299467</v>
       </c>
       <c r="J15" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K15" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6582918036684238</v>
+        <v>0.6624512632882834</v>
       </c>
       <c r="M15" t="n">
-        <v>20.46010968571434</v>
+        <v>20.33711076498692</v>
       </c>
       <c r="N15" t="n">
-        <v>634.0487562985394</v>
+        <v>629.6400821377187</v>
       </c>
       <c r="O15" t="n">
-        <v>25.18032478540615</v>
+        <v>25.09263003628194</v>
       </c>
       <c r="P15" t="n">
-        <v>353.3416328591807</v>
+        <v>353.2535355149988</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35702,28 +35939,28 @@
         <v>0.0355</v>
       </c>
       <c r="I16" t="n">
-        <v>4.309282952931865</v>
+        <v>4.314893942371211</v>
       </c>
       <c r="J16" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K16" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6762839936636476</v>
+        <v>0.6802273551701312</v>
       </c>
       <c r="M16" t="n">
-        <v>18.24187560992549</v>
+        <v>18.1280559435802</v>
       </c>
       <c r="N16" t="n">
-        <v>490.4190793691201</v>
+        <v>486.7008765875619</v>
       </c>
       <c r="O16" t="n">
-        <v>22.14540763610189</v>
+        <v>22.06129816188435</v>
       </c>
       <c r="P16" t="n">
-        <v>353.1241489438455</v>
+        <v>353.0684690954221</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35780,28 +36017,28 @@
         <v>0.0367</v>
       </c>
       <c r="I17" t="n">
-        <v>4.98944122942532</v>
+        <v>4.987328716639966</v>
       </c>
       <c r="J17" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K17" t="n">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6919854311690647</v>
+        <v>0.6952505511541276</v>
       </c>
       <c r="M17" t="n">
-        <v>20.59358722233794</v>
+        <v>20.45371774261692</v>
       </c>
       <c r="N17" t="n">
-        <v>622.0490863873378</v>
+        <v>617.1839588634019</v>
       </c>
       <c r="O17" t="n">
-        <v>24.94091189967476</v>
+        <v>24.84318737327</v>
       </c>
       <c r="P17" t="n">
-        <v>342.6102520157914</v>
+        <v>342.6308089029159</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -35858,28 +36095,28 @@
         <v>0.0383</v>
       </c>
       <c r="I18" t="n">
-        <v>6.461757661692373</v>
+        <v>6.461637674146176</v>
       </c>
       <c r="J18" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K18" t="n">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7108798792587225</v>
+        <v>0.7142241033214184</v>
       </c>
       <c r="M18" t="n">
-        <v>25.83315167377495</v>
+        <v>25.68604150616104</v>
       </c>
       <c r="N18" t="n">
-        <v>955.7174879891725</v>
+        <v>948.5598855027956</v>
       </c>
       <c r="O18" t="n">
-        <v>30.91468078420304</v>
+        <v>30.79869941252058</v>
       </c>
       <c r="P18" t="n">
-        <v>322.3514292983804</v>
+        <v>322.3527154980316</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35936,28 +36173,28 @@
         <v>0.0426</v>
       </c>
       <c r="I19" t="n">
-        <v>6.951311461765544</v>
+        <v>6.943714483166149</v>
       </c>
       <c r="J19" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K19" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L19" t="n">
-        <v>0.724029866977889</v>
+        <v>0.7270228628266183</v>
       </c>
       <c r="M19" t="n">
-        <v>26.85695603619828</v>
+        <v>26.68274204716617</v>
       </c>
       <c r="N19" t="n">
-        <v>1026.057683218508</v>
+        <v>1017.876284883818</v>
       </c>
       <c r="O19" t="n">
-        <v>32.03213516483889</v>
+        <v>31.90417347125323</v>
       </c>
       <c r="P19" t="n">
-        <v>327.8633109547524</v>
+        <v>327.9369144025005</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -36014,28 +36251,28 @@
         <v>0.0597</v>
       </c>
       <c r="I20" t="n">
-        <v>6.813611657978097</v>
+        <v>6.811111074203106</v>
       </c>
       <c r="J20" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K20" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7141233396675655</v>
+        <v>0.7176615265114404</v>
       </c>
       <c r="M20" t="n">
-        <v>26.70837060838123</v>
+        <v>26.50636170560455</v>
       </c>
       <c r="N20" t="n">
-        <v>1021.349950351001</v>
+        <v>1013.065369384416</v>
       </c>
       <c r="O20" t="n">
-        <v>31.95856614979779</v>
+        <v>31.82868783635945</v>
       </c>
       <c r="P20" t="n">
-        <v>331.9337617859543</v>
+        <v>331.9578931801059</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -36073,7 +36310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U456"/>
+  <dimension ref="A1:U459"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80073,6 +80310,327 @@
         </is>
       </c>
     </row>
+    <row r="457">
+      <c r="A457" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:07+00:00</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>-41.723814739632786,174.20368761139656</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>-41.72415840500849,174.20445976720373</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>-41.72444071603673,174.20526054516245</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>-41.72465307179795,174.206066060569</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>-41.724949707895775,174.20682853366895</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>-41.725267736185415,174.20761890996582</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>-41.72557592173978,174.20841489030337</t>
+        </is>
+      </c>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>-41.72587162055003,174.20919874923334</t>
+        </is>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>-41.726076619679766,174.20996794227273</t>
+        </is>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>-41.72627121394239,174.2107597071626</t>
+        </is>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>-41.72643338680227,174.2116148755456</t>
+        </is>
+      </c>
+      <c r="M457" t="inlineStr">
+        <is>
+          <t>-41.72659589879801,174.21244127721133</t>
+        </is>
+      </c>
+      <c r="N457" t="inlineStr">
+        <is>
+          <t>-41.7266932107063,174.21324319845533</t>
+        </is>
+      </c>
+      <c r="O457" t="inlineStr">
+        <is>
+          <t>-41.72683416985685,174.2138691091846</t>
+        </is>
+      </c>
+      <c r="P457" t="inlineStr">
+        <is>
+          <t>-41.72689894892067,174.21457609559167</t>
+        </is>
+      </c>
+      <c r="Q457" t="inlineStr">
+        <is>
+          <t>-41.72686982433767,174.21530940589165</t>
+        </is>
+      </c>
+      <c r="R457" t="inlineStr">
+        <is>
+          <t>-41.72654920761584,174.21612506630402</t>
+        </is>
+      </c>
+      <c r="S457" t="inlineStr">
+        <is>
+          <t>-41.72633092153652,174.21707184808884</t>
+        </is>
+      </c>
+      <c r="T457" t="inlineStr">
+        <is>
+          <t>-41.7262223851965,174.21789071062977</t>
+        </is>
+      </c>
+      <c r="U457" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>-41.723854764629,174.20365255229152</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>-41.72418194035718,174.20443915205271</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>-41.724516140695684,174.20519740346145</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>-41.724765043498635,174.20598295460346</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>-41.72501092925559,174.20678646470515</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>-41.72530574510459,174.2075928200368</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>-41.72561026950361,174.20839138905626</t>
+        </is>
+      </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>-41.725919992403156,174.20916698754112</t>
+        </is>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>-41.72615575225179,174.20992434275712</t>
+        </is>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>-41.7263383860384,174.2107278377378</t>
+        </is>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>-41.726513332648175,174.21157860369837</t>
+        </is>
+      </c>
+      <c r="M458" t="inlineStr">
+        <is>
+          <t>-41.72664538980627,174.21242107024108</t>
+        </is>
+      </c>
+      <c r="N458" t="inlineStr">
+        <is>
+          <t>-41.72674393944118,174.21322679404298</t>
+        </is>
+      </c>
+      <c r="O458" t="inlineStr">
+        <is>
+          <t>-41.726714706407336,174.21388226740015</t>
+        </is>
+      </c>
+      <c r="P458" t="inlineStr">
+        <is>
+          <t>-41.72687993646016,174.2145749268741</t>
+        </is>
+      </c>
+      <c r="Q458" t="inlineStr">
+        <is>
+          <t>-41.726823405433535,174.21529947625478</t>
+        </is>
+      </c>
+      <c r="R458" t="inlineStr">
+        <is>
+          <t>-41.72642472050341,174.21609618201128</t>
+        </is>
+      </c>
+      <c r="S458" t="inlineStr">
+        <is>
+          <t>-41.72634912266875,174.21707487828627</t>
+        </is>
+      </c>
+      <c r="T458" t="inlineStr">
+        <is>
+          <t>-41.72622012392682,174.21789022719406</t>
+        </is>
+      </c>
+      <c r="U458" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:48+00:00</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>-41.72378918214522,174.20370999794574</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>-41.72415987865703,174.20445847640175</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>-41.724467005676026,174.20523853682897</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>-41.724727341043575,174.20601093759402</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>-41.724989709970565,174.20680104579176</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>-41.72528868571383,174.20760452987926</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>-41.72555352699525,174.20843021310318</t>
+        </is>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>-41.7258199469333,174.2092326788555</t>
+        </is>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>-41.72608299405046,174.20996443020263</t>
+        </is>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>-41.72628458532406,174.21075336319095</t>
+        </is>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>-41.726459016250374,174.21160324734146</t>
+        </is>
+      </c>
+      <c r="M459" t="inlineStr">
+        <is>
+          <t>-41.72665916920469,174.21241544416512</t>
+        </is>
+      </c>
+      <c r="N459" t="inlineStr">
+        <is>
+          <t>-41.726733523607955,174.2132301622667</t>
+        </is>
+      </c>
+      <c r="O459" t="inlineStr">
+        <is>
+          <t>-41.72684888962049,174.21386748788382</t>
+        </is>
+      </c>
+      <c r="P459" t="inlineStr">
+        <is>
+          <t>-41.72690512647091,174.21457647533285</t>
+        </is>
+      </c>
+      <c r="Q459" t="inlineStr">
+        <is>
+          <t>-41.726875604469306,174.21531064234173</t>
+        </is>
+      </c>
+      <c r="R459" t="inlineStr">
+        <is>
+          <t>-41.72661016459403,174.21613920997405</t>
+        </is>
+      </c>
+      <c r="S459" t="inlineStr">
+        <is>
+          <t>-41.72635823812934,174.21707639586538</t>
+        </is>
+      </c>
+      <c r="T459" t="inlineStr">
+        <is>
+          <t>-41.72621727828409,174.21788961882555</t>
+        </is>
+      </c>
+      <c r="U459" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0364/nzd0364.xlsx
+++ b/data/nzd0364/nzd0364.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U459"/>
+  <dimension ref="A1:U462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29745,6 +29745,213 @@
         </is>
       </c>
     </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:54+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>400.9914285714286</v>
+      </c>
+      <c r="C460" t="n">
+        <v>407.2314285714286</v>
+      </c>
+      <c r="D460" t="n">
+        <v>417.2614285714286</v>
+      </c>
+      <c r="E460" t="n">
+        <v>424.0514285714286</v>
+      </c>
+      <c r="F460" t="n">
+        <v>421.1114285714286</v>
+      </c>
+      <c r="G460" t="n">
+        <v>421.4814285714286</v>
+      </c>
+      <c r="H460" t="n">
+        <v>424.5814285714285</v>
+      </c>
+      <c r="I460" t="n">
+        <v>432.6114285714286</v>
+      </c>
+      <c r="J460" t="n">
+        <v>437.2414285714286</v>
+      </c>
+      <c r="K460" t="n">
+        <v>440.4714285714285</v>
+      </c>
+      <c r="L460" t="n">
+        <v>440.6314285714286</v>
+      </c>
+      <c r="M460" t="n">
+        <v>450.3466666666667</v>
+      </c>
+      <c r="N460" t="n">
+        <v>459.3114285714286</v>
+      </c>
+      <c r="O460" t="n">
+        <v>460.25</v>
+      </c>
+      <c r="P460" t="n">
+        <v>456.4766666666667</v>
+      </c>
+      <c r="Q460" t="n">
+        <v>456.38</v>
+      </c>
+      <c r="R460" t="n">
+        <v>476.12</v>
+      </c>
+      <c r="S460" t="n">
+        <v>490.6166666666667</v>
+      </c>
+      <c r="T460" t="n">
+        <v>493.6214285714286</v>
+      </c>
+      <c r="U460" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:06:38+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>408.4985714285714</v>
+      </c>
+      <c r="C461" t="n">
+        <v>413.5285714285715</v>
+      </c>
+      <c r="D461" t="n">
+        <v>421.6785714285714</v>
+      </c>
+      <c r="E461" t="n">
+        <v>429.7085714285714</v>
+      </c>
+      <c r="F461" t="n">
+        <v>427.4485714285714</v>
+      </c>
+      <c r="G461" t="n">
+        <v>430.6985714285714</v>
+      </c>
+      <c r="H461" t="n">
+        <v>430.3485714285715</v>
+      </c>
+      <c r="I461" t="n">
+        <v>435.6485714285715</v>
+      </c>
+      <c r="J461" t="n">
+        <v>440.8285714285714</v>
+      </c>
+      <c r="K461" t="n">
+        <v>439.4985714285714</v>
+      </c>
+      <c r="L461" t="n">
+        <v>443.8385714285714</v>
+      </c>
+      <c r="M461" t="n">
+        <v>455.5266666666667</v>
+      </c>
+      <c r="N461" t="n">
+        <v>460.5985714285715</v>
+      </c>
+      <c r="O461" t="n">
+        <v>469.89</v>
+      </c>
+      <c r="P461" t="n">
+        <v>454.9366666666667</v>
+      </c>
+      <c r="Q461" t="n">
+        <v>456.85</v>
+      </c>
+      <c r="R461" t="n">
+        <v>485.5</v>
+      </c>
+      <c r="S461" t="n">
+        <v>496.7666666666667</v>
+      </c>
+      <c r="T461" t="n">
+        <v>499.2785714285715</v>
+      </c>
+      <c r="U461" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:06:43+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>423.0071428571428</v>
+      </c>
+      <c r="C462" t="n">
+        <v>422.4371428571428</v>
+      </c>
+      <c r="D462" t="n">
+        <v>431.9571428571429</v>
+      </c>
+      <c r="E462" t="n">
+        <v>437.6671428571429</v>
+      </c>
+      <c r="F462" t="n">
+        <v>438.1171428571428</v>
+      </c>
+      <c r="G462" t="n">
+        <v>440.3271428571429</v>
+      </c>
+      <c r="H462" t="n">
+        <v>440.8771428571428</v>
+      </c>
+      <c r="I462" t="n">
+        <v>447.8471428571429</v>
+      </c>
+      <c r="J462" t="n">
+        <v>451.3571428571428</v>
+      </c>
+      <c r="K462" t="n">
+        <v>449.1071428571428</v>
+      </c>
+      <c r="L462" t="n">
+        <v>456.0071428571428</v>
+      </c>
+      <c r="M462" t="n">
+        <v>461.29</v>
+      </c>
+      <c r="N462" t="n">
+        <v>470.0671428571428</v>
+      </c>
+      <c r="O462" t="n">
+        <v>471.35</v>
+      </c>
+      <c r="P462" t="n">
+        <v>462.88</v>
+      </c>
+      <c r="Q462" t="n">
+        <v>464.35</v>
+      </c>
+      <c r="R462" t="n">
+        <v>480.7</v>
+      </c>
+      <c r="S462" t="n">
+        <v>500.14</v>
+      </c>
+      <c r="T462" t="n">
+        <v>504.2571428571428</v>
+      </c>
+      <c r="U462" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29756,7 +29963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B491"/>
+  <dimension ref="A1:B494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34674,6 +34881,36 @@
       </c>
       <c r="B491" t="n">
         <v>-0.35</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>-0.18</v>
       </c>
     </row>
   </sheetData>
@@ -34847,28 +35084,28 @@
         <v>0.0417</v>
       </c>
       <c r="I2" t="n">
-        <v>2.228489274933346</v>
+        <v>2.229135214255309</v>
       </c>
       <c r="J2" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K2" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L2" t="n">
-        <v>0.597505023464574</v>
+        <v>0.6008007046385753</v>
       </c>
       <c r="M2" t="n">
-        <v>11.01582961861168</v>
+        <v>10.99276739609729</v>
       </c>
       <c r="N2" t="n">
-        <v>188.6062712321639</v>
+        <v>187.827645179364</v>
       </c>
       <c r="O2" t="n">
-        <v>13.73339984243391</v>
+        <v>13.70502262600701</v>
       </c>
       <c r="P2" t="n">
-        <v>352.7553755477193</v>
+        <v>352.7490642609066</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34925,28 +35162,28 @@
         <v>0.0422</v>
       </c>
       <c r="I3" t="n">
-        <v>2.343899833194285</v>
+        <v>2.345080767183854</v>
       </c>
       <c r="J3" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K3" t="n">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L3" t="n">
-        <v>0.607741027155942</v>
+        <v>0.6114854195985986</v>
       </c>
       <c r="M3" t="n">
-        <v>11.2375345100891</v>
+        <v>11.19135030795172</v>
       </c>
       <c r="N3" t="n">
-        <v>199.862886786044</v>
+        <v>198.6832784202492</v>
       </c>
       <c r="O3" t="n">
-        <v>14.13728710842515</v>
+        <v>14.09550561066361</v>
       </c>
       <c r="P3" t="n">
-        <v>352.954767090662</v>
+        <v>352.9433109315251</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35003,28 +35240,28 @@
         <v>0.041</v>
       </c>
       <c r="I4" t="n">
-        <v>2.612407211985891</v>
+        <v>2.614508574751033</v>
       </c>
       <c r="J4" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K4" t="n">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6520223128539839</v>
+        <v>0.6558045542924946</v>
       </c>
       <c r="M4" t="n">
-        <v>11.54373793364419</v>
+        <v>11.49406600020235</v>
       </c>
       <c r="N4" t="n">
-        <v>206.1372045978999</v>
+        <v>204.9018176535715</v>
       </c>
       <c r="O4" t="n">
-        <v>14.35747904744771</v>
+        <v>14.31439197638417</v>
       </c>
       <c r="P4" t="n">
-        <v>354.6196656348749</v>
+        <v>354.5994905116975</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -35081,28 +35318,28 @@
         <v>0.0427</v>
       </c>
       <c r="I5" t="n">
-        <v>2.894473828050034</v>
+        <v>2.89371799640083</v>
       </c>
       <c r="J5" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K5" t="n">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6822581667219916</v>
+        <v>0.6854487545924921</v>
       </c>
       <c r="M5" t="n">
-        <v>12.00521682573608</v>
+        <v>11.95420733861632</v>
       </c>
       <c r="N5" t="n">
-        <v>221.2760686665696</v>
+        <v>219.8830759974941</v>
       </c>
       <c r="O5" t="n">
-        <v>14.87535104347355</v>
+        <v>14.82845494303078</v>
       </c>
       <c r="P5" t="n">
-        <v>356.1399865173944</v>
+        <v>356.1471439452048</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -35159,28 +35396,28 @@
         <v>0.0423</v>
       </c>
       <c r="I6" t="n">
-        <v>3.189516417550608</v>
+        <v>3.180051330698436</v>
       </c>
       <c r="J6" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K6" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7088271655801865</v>
+        <v>0.7102705111224868</v>
       </c>
       <c r="M6" t="n">
-        <v>12.42189911735268</v>
+        <v>12.39796343138816</v>
       </c>
       <c r="N6" t="n">
-        <v>236.9566128638105</v>
+        <v>235.9065099211928</v>
       </c>
       <c r="O6" t="n">
-        <v>15.39339510516801</v>
+        <v>15.35924835143936</v>
       </c>
       <c r="P6" t="n">
-        <v>353.1207502525537</v>
+        <v>353.2118791510704</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -35237,28 +35474,28 @@
         <v>0.0394</v>
       </c>
       <c r="I7" t="n">
-        <v>3.313656481316391</v>
+        <v>3.305257308201611</v>
       </c>
       <c r="J7" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K7" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7047030253115791</v>
+        <v>0.7062190841795899</v>
       </c>
       <c r="M7" t="n">
-        <v>13.28654331612089</v>
+        <v>13.2577534533952</v>
       </c>
       <c r="N7" t="n">
-        <v>262.7829544494985</v>
+        <v>261.5991906862411</v>
       </c>
       <c r="O7" t="n">
-        <v>16.21058155802865</v>
+        <v>16.17402827641405</v>
       </c>
       <c r="P7" t="n">
-        <v>351.3511816105197</v>
+        <v>351.4322865482966</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -35315,28 +35552,28 @@
         <v>0.0449</v>
       </c>
       <c r="I8" t="n">
-        <v>3.201648704199821</v>
+        <v>3.193655132115325</v>
       </c>
       <c r="J8" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K8" t="n">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6679996609906673</v>
+        <v>0.6697852252676471</v>
       </c>
       <c r="M8" t="n">
-        <v>13.87182598577295</v>
+        <v>13.83463666910455</v>
       </c>
       <c r="N8" t="n">
-        <v>291.8046710137837</v>
+        <v>290.2891332566666</v>
       </c>
       <c r="O8" t="n">
-        <v>17.08229115235376</v>
+        <v>17.03787349573492</v>
       </c>
       <c r="P8" t="n">
-        <v>355.04527929439</v>
+        <v>355.1223211289076</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35393,28 +35630,28 @@
         <v>0.0417</v>
       </c>
       <c r="I9" t="n">
-        <v>3.221700791465236</v>
+        <v>3.219180036456414</v>
       </c>
       <c r="J9" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K9" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6553383600618266</v>
+        <v>0.6581318350718074</v>
       </c>
       <c r="M9" t="n">
-        <v>14.4473028851173</v>
+        <v>14.39223647807145</v>
       </c>
       <c r="N9" t="n">
-        <v>310.5605407499709</v>
+        <v>308.6619774385679</v>
       </c>
       <c r="O9" t="n">
-        <v>17.62272795993773</v>
+        <v>17.56877848453238</v>
       </c>
       <c r="P9" t="n">
-        <v>357.2276031188796</v>
+        <v>357.2520289154577</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35471,28 +35708,28 @@
         <v>0.0425</v>
       </c>
       <c r="I10" t="n">
-        <v>3.371989674086427</v>
+        <v>3.369095870301347</v>
       </c>
       <c r="J10" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K10" t="n">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6673900301049592</v>
+        <v>0.6702244517530843</v>
       </c>
       <c r="M10" t="n">
-        <v>14.74063140575916</v>
+        <v>14.6782213991327</v>
       </c>
       <c r="N10" t="n">
-        <v>319.4763252548497</v>
+        <v>317.4271194757423</v>
       </c>
       <c r="O10" t="n">
-        <v>17.87390067262459</v>
+        <v>17.81648448700647</v>
       </c>
       <c r="P10" t="n">
-        <v>357.9969804379662</v>
+        <v>358.0251905460493</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35549,28 +35786,28 @@
         <v>0.041</v>
       </c>
       <c r="I11" t="n">
-        <v>3.549952541698072</v>
+        <v>3.547962451319344</v>
       </c>
       <c r="J11" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K11" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6602362232348948</v>
+        <v>0.6633801488842916</v>
       </c>
       <c r="M11" t="n">
-        <v>15.89516335764527</v>
+        <v>15.80974344471082</v>
       </c>
       <c r="N11" t="n">
-        <v>361.8961241655344</v>
+        <v>359.3455755144075</v>
       </c>
       <c r="O11" t="n">
-        <v>19.02356759825912</v>
+        <v>18.95641251699296</v>
       </c>
       <c r="P11" t="n">
-        <v>352.598715931272</v>
+        <v>352.6183357574751</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35627,28 +35864,28 @@
         <v>0.0449</v>
       </c>
       <c r="I12" t="n">
-        <v>3.937679423298249</v>
+        <v>3.931603028981869</v>
       </c>
       <c r="J12" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K12" t="n">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6721023306478937</v>
+        <v>0.6746706489715982</v>
       </c>
       <c r="M12" t="n">
-        <v>17.11271179415878</v>
+        <v>17.03805931098799</v>
       </c>
       <c r="N12" t="n">
-        <v>419.940800554071</v>
+        <v>417.2004815106873</v>
       </c>
       <c r="O12" t="n">
-        <v>20.49245716243103</v>
+        <v>20.42548607770907</v>
       </c>
       <c r="P12" t="n">
-        <v>349.1480877618835</v>
+        <v>349.208338911318</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35705,28 +35942,28 @@
         <v>0.0352</v>
       </c>
       <c r="I13" t="n">
-        <v>4.261537858408904</v>
+        <v>4.256304872561071</v>
       </c>
       <c r="J13" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K13" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6728858790019689</v>
+        <v>0.6755771693347178</v>
       </c>
       <c r="M13" t="n">
-        <v>18.25559627855</v>
+        <v>18.15997554775263</v>
       </c>
       <c r="N13" t="n">
-        <v>493.3927192900661</v>
+        <v>489.999259135422</v>
       </c>
       <c r="O13" t="n">
-        <v>22.21244514433443</v>
+        <v>22.1359268867473</v>
       </c>
       <c r="P13" t="n">
-        <v>349.2316921135794</v>
+        <v>349.2834638570229</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35783,28 +36020,28 @@
         <v>0.0437</v>
       </c>
       <c r="I14" t="n">
-        <v>4.587766356799377</v>
+        <v>4.579296605128964</v>
       </c>
       <c r="J14" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K14" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6929380383022923</v>
+        <v>0.6953318123826651</v>
       </c>
       <c r="M14" t="n">
-        <v>18.90356361522229</v>
+        <v>18.80798832466215</v>
       </c>
       <c r="N14" t="n">
-        <v>518.178980011121</v>
+        <v>514.5373961715575</v>
       </c>
       <c r="O14" t="n">
-        <v>22.76354497900362</v>
+        <v>22.6834167658128</v>
       </c>
       <c r="P14" t="n">
-        <v>350.3948127916598</v>
+        <v>350.4796074720366</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35861,28 +36098,28 @@
         <v>0.0302</v>
       </c>
       <c r="I15" t="n">
-        <v>4.705095690299467</v>
+        <v>4.693608101169453</v>
       </c>
       <c r="J15" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K15" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6624512632882834</v>
+        <v>0.6646402382634757</v>
       </c>
       <c r="M15" t="n">
-        <v>20.33711076498692</v>
+        <v>20.2464355848827</v>
       </c>
       <c r="N15" t="n">
-        <v>629.6400821377187</v>
+        <v>625.3235866636201</v>
       </c>
       <c r="O15" t="n">
-        <v>25.09263003628194</v>
+        <v>25.00647089582255</v>
       </c>
       <c r="P15" t="n">
-        <v>353.2535355149988</v>
+        <v>353.3684186134537</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35939,28 +36176,28 @@
         <v>0.0355</v>
       </c>
       <c r="I16" t="n">
-        <v>4.314893942371211</v>
+        <v>4.305264656752527</v>
       </c>
       <c r="J16" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K16" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6802273551701312</v>
+        <v>0.6824745889856439</v>
       </c>
       <c r="M16" t="n">
-        <v>18.1280559435802</v>
+        <v>18.0382934217369</v>
       </c>
       <c r="N16" t="n">
-        <v>486.7008765875619</v>
+        <v>483.3362753227527</v>
       </c>
       <c r="O16" t="n">
-        <v>22.06129816188435</v>
+        <v>21.98491017317907</v>
       </c>
       <c r="P16" t="n">
-        <v>353.0684690954221</v>
+        <v>353.1647621878589</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -36017,28 +36254,28 @@
         <v>0.0367</v>
       </c>
       <c r="I17" t="n">
-        <v>4.987328716639966</v>
+        <v>4.968842390793236</v>
       </c>
       <c r="J17" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K17" t="n">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6952505511541276</v>
+        <v>0.6966753203761361</v>
       </c>
       <c r="M17" t="n">
-        <v>20.45371774261692</v>
+        <v>20.3915731166062</v>
       </c>
       <c r="N17" t="n">
-        <v>617.1839588634019</v>
+        <v>613.615267410216</v>
       </c>
       <c r="O17" t="n">
-        <v>24.84318737327</v>
+        <v>24.77125889837285</v>
       </c>
       <c r="P17" t="n">
-        <v>342.6308089029159</v>
+        <v>342.8118529916419</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -36095,28 +36332,28 @@
         <v>0.0383</v>
       </c>
       <c r="I18" t="n">
-        <v>6.461637674146176</v>
+        <v>6.448260552060711</v>
       </c>
       <c r="J18" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K18" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7142241033214184</v>
+        <v>0.7166754168932763</v>
       </c>
       <c r="M18" t="n">
-        <v>25.68604150616104</v>
+        <v>25.55361450591403</v>
       </c>
       <c r="N18" t="n">
-        <v>948.5598855027956</v>
+        <v>941.6049983548405</v>
       </c>
       <c r="O18" t="n">
-        <v>30.79869941252058</v>
+        <v>30.68558290720319</v>
       </c>
       <c r="P18" t="n">
-        <v>322.3527154980316</v>
+        <v>322.4828451299514</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -36173,28 +36410,28 @@
         <v>0.0426</v>
       </c>
       <c r="I19" t="n">
-        <v>6.943714483166149</v>
+        <v>6.9254555688039</v>
       </c>
       <c r="J19" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K19" t="n">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7270228628266183</v>
+        <v>0.7291736762963795</v>
       </c>
       <c r="M19" t="n">
-        <v>26.68274204716617</v>
+        <v>26.57323657844691</v>
       </c>
       <c r="N19" t="n">
-        <v>1017.876284883818</v>
+        <v>1010.825513233024</v>
       </c>
       <c r="O19" t="n">
-        <v>31.90417347125323</v>
+        <v>31.79348224452653</v>
       </c>
       <c r="P19" t="n">
-        <v>327.9369144025005</v>
+        <v>328.1149263119453</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -36251,28 +36488,28 @@
         <v>0.0597</v>
       </c>
       <c r="I20" t="n">
-        <v>6.811111074203106</v>
+        <v>6.796608687214213</v>
       </c>
       <c r="J20" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K20" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7176615265114404</v>
+        <v>0.7202830812957051</v>
       </c>
       <c r="M20" t="n">
-        <v>26.50636170560455</v>
+        <v>26.38053113386364</v>
       </c>
       <c r="N20" t="n">
-        <v>1013.065369384416</v>
+        <v>1005.688512122614</v>
       </c>
       <c r="O20" t="n">
-        <v>31.82868783635945</v>
+        <v>31.71259232738021</v>
       </c>
       <c r="P20" t="n">
-        <v>331.9578931801059</v>
+        <v>332.0987602133066</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -36310,7 +36547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U459"/>
+  <dimension ref="A1:U462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80631,6 +80868,327 @@
         </is>
       </c>
     </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:54+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>-41.72395241223806,174.20356701957718</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>-41.7242781577302,174.2043548728637</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>-41.7245685455545,174.20515353266734</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>-41.7248476785313,174.20592162225122</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>-41.72517314519651,174.20667499571832</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>-41.72548217414828,174.2074717158749</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>-41.72576854393889,174.20828309499012</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>-41.72600919746642,174.20910841400595</t>
+        </is>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>-41.7262417348748,174.20987696895324</t>
+        </is>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>-41.72643036124395,174.2106842005045</t>
+        </is>
+      </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>-41.72665546398233,174.21151411774116</t>
+        </is>
+      </c>
+      <c r="M460" t="inlineStr">
+        <is>
+          <t>-41.72677660985792,174.21236749349333</t>
+        </is>
+      </c>
+      <c r="N460" t="inlineStr">
+        <is>
+          <t>-41.726875043887624,174.21318439800362</t>
+        </is>
+      </c>
+      <c r="O460" t="inlineStr">
+        <is>
+          <t>-41.72697714902237,174.21385336078973</t>
+        </is>
+      </c>
+      <c r="P460" t="inlineStr">
+        <is>
+          <t>-41.726995960448974,174.2145820590135</t>
+        </is>
+      </c>
+      <c r="Q460" t="inlineStr">
+        <is>
+          <t>-41.726972977452874,174.2153314718053</t>
+        </is>
+      </c>
+      <c r="R460" t="inlineStr">
+        <is>
+          <t>-41.72663740446551,174.2161455303713</t>
+        </is>
+      </c>
+      <c r="S460" t="inlineStr">
+        <is>
+          <t>-41.72644605635555,174.21709101622614</t>
+        </is>
+      </c>
+      <c r="T460" t="inlineStr">
+        <is>
+          <t>-41.726326378190265,174.21791294327952</t>
+        </is>
+      </c>
+      <c r="U460" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:06:38+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>-41.72389588677903,174.20361653210176</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>-41.72423074284892,174.2043964047747</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>-41.724534844261974,174.20518174575685</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>-41.72480315074517,174.20595467113637</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>-41.72512240196588,174.20670986471697</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>-41.725408353139414,174.20752238807208</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>-41.72572232332595,174.20831471998252</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>-41.72598465366648,174.20912452989296</t>
+        </is>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>-41.72621187286224,174.20989342202697</t>
+        </is>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>-41.72643861682704,174.21068028367293</t>
+        </is>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>-41.7266281169809,174.21152652528536</t>
+        </is>
+      </c>
+      <c r="M461" t="inlineStr">
+        <is>
+          <t>-41.72673199906216,174.21238570797044</t>
+        </is>
+      </c>
+      <c r="N461" t="inlineStr">
+        <is>
+          <t>-41.726863777783706,174.21318804119866</t>
+        </is>
+      </c>
+      <c r="O461" t="inlineStr">
+        <is>
+          <t>-41.72689062553545,174.2138628908993</t>
+        </is>
+      </c>
+      <c r="P461" t="inlineStr">
+        <is>
+          <t>-41.727009814954556,174.21458291066935</t>
+        </is>
+      </c>
+      <c r="Q461" t="inlineStr">
+        <is>
+          <t>-41.72696879797334,174.2153305777539</t>
+        </is>
+      </c>
+      <c r="R461" t="inlineStr">
+        <is>
+          <t>-41.726554176452595,174.21612621920764</t>
+        </is>
+      </c>
+      <c r="S461" t="inlineStr">
+        <is>
+          <t>-41.726391095491906,174.21708186609712</t>
+        </is>
+      </c>
+      <c r="T461" t="inlineStr">
+        <is>
+          <t>-41.72627607129459,174.21790218816466</t>
+        </is>
+      </c>
+      <c r="U461" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:06:43+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>-41.72378664360666,174.20371222152457</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>-41.72416366496562,174.20445515988834</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>-41.724456422243776,174.2052473967365</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>-41.724740508230404,174.20600116483243</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>-41.7250369757825,174.20676856650658</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>-41.72533123693518,174.20757532201807</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>-41.725637942348584,174.20837245486686</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>-41.725886074383894,174.2091892586324</t>
+        </is>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>-41.72612422528522,174.20994171312077</t>
+        </is>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>-41.72635707930017,174.21071896881213</t>
+        </is>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>-41.726524356720205,174.21157360201212</t>
+        </is>
+      </c>
+      <c r="M462" t="inlineStr">
+        <is>
+          <t>-41.72668236452473,174.21240597359858</t>
+        </is>
+      </c>
+      <c r="N462" t="inlineStr">
+        <is>
+          <t>-41.72678090126864,174.2132148414902</t>
+        </is>
+      </c>
+      <c r="O462" t="inlineStr">
+        <is>
+          <t>-41.726877521355746,174.21386433425414</t>
+        </is>
+      </c>
+      <c r="P462" t="inlineStr">
+        <is>
+          <t>-41.7269383532944,174.21457851782597</t>
+        </is>
+      </c>
+      <c r="Q462" t="inlineStr">
+        <is>
+          <t>-41.726902104149474,174.21531631099285</t>
+        </is>
+      </c>
+      <c r="R462" t="inlineStr">
+        <is>
+          <t>-41.72659676648116,174.2161361012465</t>
+        </is>
+      </c>
+      <c r="S462" t="inlineStr">
+        <is>
+          <t>-41.72636094893626,174.21707684717168</t>
+        </is>
+      </c>
+      <c r="T462" t="inlineStr">
+        <is>
+          <t>-41.72623179868426,174.217892723135</t>
+        </is>
+      </c>
+      <c r="U462" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0364/nzd0364.xlsx
+++ b/data/nzd0364/nzd0364.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U462"/>
+  <dimension ref="A1:U463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29952,6 +29952,75 @@
         </is>
       </c>
     </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:06:42+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>401.1228571428572</v>
+      </c>
+      <c r="C463" t="n">
+        <v>407.5828571428572</v>
+      </c>
+      <c r="D463" t="n">
+        <v>416.5028571428572</v>
+      </c>
+      <c r="E463" t="n">
+        <v>419.6928571428572</v>
+      </c>
+      <c r="F463" t="n">
+        <v>423.0328571428572</v>
+      </c>
+      <c r="G463" t="n">
+        <v>424.2928571428571</v>
+      </c>
+      <c r="H463" t="n">
+        <v>429.2728571428572</v>
+      </c>
+      <c r="I463" t="n">
+        <v>430.1228571428572</v>
+      </c>
+      <c r="J463" t="n">
+        <v>436.1728571428571</v>
+      </c>
+      <c r="K463" t="n">
+        <v>436.0228571428572</v>
+      </c>
+      <c r="L463" t="n">
+        <v>444.2828571428572</v>
+      </c>
+      <c r="M463" t="n">
+        <v>452.9533333333333</v>
+      </c>
+      <c r="N463" t="n">
+        <v>458.0328571428572</v>
+      </c>
+      <c r="O463" t="n">
+        <v>464.67</v>
+      </c>
+      <c r="P463" t="n">
+        <v>454.7933333333333</v>
+      </c>
+      <c r="Q463" t="n">
+        <v>469.86</v>
+      </c>
+      <c r="R463" t="n">
+        <v>473.16</v>
+      </c>
+      <c r="S463" t="n">
+        <v>495.3533333333333</v>
+      </c>
+      <c r="T463" t="n">
+        <v>492.9928571428572</v>
+      </c>
+      <c r="U463" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29963,7 +30032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B494"/>
+  <dimension ref="A1:B495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34911,6 +34980,16 @@
       </c>
       <c r="B494" t="n">
         <v>-0.18</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>0.46</v>
       </c>
     </row>
   </sheetData>
@@ -35084,28 +35163,28 @@
         <v>0.0417</v>
       </c>
       <c r="I2" t="n">
-        <v>2.229135214255309</v>
+        <v>2.224627430731129</v>
       </c>
       <c r="J2" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K2" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6008007046385753</v>
+        <v>0.600850304490351</v>
       </c>
       <c r="M2" t="n">
-        <v>10.99276739609729</v>
+        <v>10.99140562588074</v>
       </c>
       <c r="N2" t="n">
-        <v>187.827645179364</v>
+        <v>187.5814899565956</v>
       </c>
       <c r="O2" t="n">
-        <v>13.70502262600701</v>
+        <v>13.69603920688736</v>
       </c>
       <c r="P2" t="n">
-        <v>352.7490642609066</v>
+        <v>352.7924609967336</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35162,28 +35241,28 @@
         <v>0.0422</v>
       </c>
       <c r="I3" t="n">
-        <v>2.345080767183854</v>
+        <v>2.342166582185175</v>
       </c>
       <c r="J3" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K3" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6114854195985986</v>
+        <v>0.6120499805841297</v>
       </c>
       <c r="M3" t="n">
-        <v>11.19135030795172</v>
+        <v>11.18106906902105</v>
       </c>
       <c r="N3" t="n">
-        <v>198.6832784202492</v>
+        <v>198.2894459763615</v>
       </c>
       <c r="O3" t="n">
-        <v>14.09550561066361</v>
+        <v>14.08152853834986</v>
       </c>
       <c r="P3" t="n">
-        <v>352.9433109315251</v>
+        <v>352.9714601687965</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35240,28 +35319,28 @@
         <v>0.041</v>
       </c>
       <c r="I4" t="n">
-        <v>2.614508574751033</v>
+        <v>2.611691357475563</v>
       </c>
       <c r="J4" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K4" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6558045542924946</v>
+        <v>0.6564529769149121</v>
       </c>
       <c r="M4" t="n">
-        <v>11.49406600020235</v>
+        <v>11.48201107051731</v>
       </c>
       <c r="N4" t="n">
-        <v>204.9018176535715</v>
+        <v>204.4805106967107</v>
       </c>
       <c r="O4" t="n">
-        <v>14.31439197638417</v>
+        <v>14.29966820232941</v>
       </c>
       <c r="P4" t="n">
-        <v>354.5994905116975</v>
+        <v>354.6265001086949</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -35318,28 +35397,28 @@
         <v>0.0427</v>
       </c>
       <c r="I5" t="n">
-        <v>2.89371799640083</v>
+        <v>2.888277996691038</v>
       </c>
       <c r="J5" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K5" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6854487545924921</v>
+        <v>0.6854845417152363</v>
       </c>
       <c r="M5" t="n">
-        <v>11.95420733861632</v>
+        <v>11.9580962415217</v>
       </c>
       <c r="N5" t="n">
-        <v>219.8830759974941</v>
+        <v>219.663672329741</v>
       </c>
       <c r="O5" t="n">
-        <v>14.82845494303078</v>
+        <v>14.82105503429972</v>
       </c>
       <c r="P5" t="n">
-        <v>356.1471439452048</v>
+        <v>356.1992295720385</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -35396,28 +35475,28 @@
         <v>0.0423</v>
       </c>
       <c r="I6" t="n">
-        <v>3.180051330698436</v>
+        <v>3.174168942547579</v>
       </c>
       <c r="J6" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K6" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7102705111224868</v>
+        <v>0.710247853263918</v>
       </c>
       <c r="M6" t="n">
-        <v>12.39796343138816</v>
+        <v>12.40172850518634</v>
       </c>
       <c r="N6" t="n">
-        <v>235.9065099211928</v>
+        <v>235.7154246749095</v>
       </c>
       <c r="O6" t="n">
-        <v>15.35924835143936</v>
+        <v>15.35302656400065</v>
       </c>
       <c r="P6" t="n">
-        <v>353.2118791510704</v>
+        <v>353.2686845629357</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -35474,28 +35553,28 @@
         <v>0.0394</v>
       </c>
       <c r="I7" t="n">
-        <v>3.305257308201611</v>
+        <v>3.299521122547912</v>
       </c>
       <c r="J7" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K7" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7062190841795899</v>
+        <v>0.7062187035277765</v>
       </c>
       <c r="M7" t="n">
-        <v>13.2577534533952</v>
+        <v>13.26065652452446</v>
       </c>
       <c r="N7" t="n">
-        <v>261.5991906862411</v>
+        <v>261.3641819124231</v>
       </c>
       <c r="O7" t="n">
-        <v>16.17402827641405</v>
+        <v>16.16676163962416</v>
       </c>
       <c r="P7" t="n">
-        <v>351.4322865482966</v>
+        <v>351.4878579132113</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -35552,28 +35631,28 @@
         <v>0.0449</v>
       </c>
       <c r="I8" t="n">
-        <v>3.193655132115325</v>
+        <v>3.189794797991011</v>
       </c>
       <c r="J8" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K8" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6697852252676471</v>
+        <v>0.6702108847663886</v>
       </c>
       <c r="M8" t="n">
-        <v>13.83463666910455</v>
+        <v>13.82489775034326</v>
       </c>
       <c r="N8" t="n">
-        <v>290.2891332566666</v>
+        <v>289.7752404018394</v>
       </c>
       <c r="O8" t="n">
-        <v>17.03787349573492</v>
+        <v>17.02278591775856</v>
       </c>
       <c r="P8" t="n">
-        <v>355.1223211289076</v>
+        <v>355.1596451732247</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35630,28 +35709,28 @@
         <v>0.0417</v>
       </c>
       <c r="I9" t="n">
-        <v>3.219180036456414</v>
+        <v>3.214412015390652</v>
       </c>
       <c r="J9" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K9" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6581318350718074</v>
+        <v>0.6583866556829934</v>
       </c>
       <c r="M9" t="n">
-        <v>14.39223647807145</v>
+        <v>14.3842850120275</v>
       </c>
       <c r="N9" t="n">
-        <v>308.6619774385679</v>
+        <v>308.1885801826478</v>
       </c>
       <c r="O9" t="n">
-        <v>17.56877848453238</v>
+        <v>17.55530062923013</v>
       </c>
       <c r="P9" t="n">
-        <v>357.2520289154577</v>
+        <v>357.298468803737</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35708,28 +35787,28 @@
         <v>0.0425</v>
       </c>
       <c r="I10" t="n">
-        <v>3.369095870301347</v>
+        <v>3.364845696383486</v>
       </c>
       <c r="J10" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K10" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6702244517530843</v>
+        <v>0.670647982307522</v>
       </c>
       <c r="M10" t="n">
-        <v>14.6782213991327</v>
+        <v>14.66556022804873</v>
       </c>
       <c r="N10" t="n">
-        <v>317.4271194757423</v>
+        <v>316.8569275863384</v>
       </c>
       <c r="O10" t="n">
-        <v>17.81648448700647</v>
+        <v>17.80047548764747</v>
       </c>
       <c r="P10" t="n">
-        <v>358.0251905460493</v>
+        <v>358.0668133626909</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35786,28 +35865,28 @@
         <v>0.041</v>
       </c>
       <c r="I11" t="n">
-        <v>3.547962451319344</v>
+        <v>3.543921011501302</v>
       </c>
       <c r="J11" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K11" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6633801488842916</v>
+        <v>0.6639055244663371</v>
       </c>
       <c r="M11" t="n">
-        <v>15.80974344471082</v>
+        <v>15.79119143494436</v>
       </c>
       <c r="N11" t="n">
-        <v>359.3455755144075</v>
+        <v>358.6329430521077</v>
       </c>
       <c r="O11" t="n">
-        <v>18.95641251699296</v>
+        <v>18.93760658193394</v>
       </c>
       <c r="P11" t="n">
-        <v>352.6183357574751</v>
+        <v>352.6583522954294</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35864,28 +35943,28 @@
         <v>0.0449</v>
       </c>
       <c r="I12" t="n">
-        <v>3.931603028981869</v>
+        <v>3.928312589733498</v>
       </c>
       <c r="J12" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K12" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6746706489715982</v>
+        <v>0.6753875741300672</v>
       </c>
       <c r="M12" t="n">
-        <v>17.03805931098799</v>
+        <v>17.01138342608974</v>
       </c>
       <c r="N12" t="n">
-        <v>417.2004815106873</v>
+        <v>416.2603452258132</v>
       </c>
       <c r="O12" t="n">
-        <v>20.42548607770907</v>
+        <v>20.40245929357079</v>
       </c>
       <c r="P12" t="n">
-        <v>349.208338911318</v>
+        <v>349.2410783208426</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35942,28 +36021,28 @@
         <v>0.0352</v>
       </c>
       <c r="I13" t="n">
-        <v>4.256304872561071</v>
+        <v>4.253227722184277</v>
       </c>
       <c r="J13" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K13" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6755771693347178</v>
+        <v>0.6763099717552932</v>
       </c>
       <c r="M13" t="n">
-        <v>18.15997554775263</v>
+        <v>18.13329783333554</v>
       </c>
       <c r="N13" t="n">
-        <v>489.999259135422</v>
+        <v>488.9047442459711</v>
       </c>
       <c r="O13" t="n">
-        <v>22.1359268867473</v>
+        <v>22.11119047554815</v>
       </c>
       <c r="P13" t="n">
-        <v>349.2834638570229</v>
+        <v>349.3140050406187</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -36020,28 +36099,28 @@
         <v>0.0437</v>
       </c>
       <c r="I14" t="n">
-        <v>4.579296605128964</v>
+        <v>4.5738512906903</v>
       </c>
       <c r="J14" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K14" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6953318123826651</v>
+        <v>0.6957975736113291</v>
       </c>
       <c r="M14" t="n">
-        <v>18.80798832466215</v>
+        <v>18.78959887391936</v>
       </c>
       <c r="N14" t="n">
-        <v>514.5373961715575</v>
+        <v>513.513206472665</v>
       </c>
       <c r="O14" t="n">
-        <v>22.6834167658128</v>
+        <v>22.66082978340963</v>
       </c>
       <c r="P14" t="n">
-        <v>350.4796074720366</v>
+        <v>350.5342799591962</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -36098,28 +36177,28 @@
         <v>0.0302</v>
       </c>
       <c r="I15" t="n">
-        <v>4.693608101169453</v>
+        <v>4.688556627971788</v>
       </c>
       <c r="J15" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K15" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6646402382634757</v>
+        <v>0.6652157320286991</v>
       </c>
       <c r="M15" t="n">
-        <v>20.2464355848827</v>
+        <v>20.22380594479926</v>
       </c>
       <c r="N15" t="n">
-        <v>625.3235866636201</v>
+        <v>623.9593862508965</v>
       </c>
       <c r="O15" t="n">
-        <v>25.00647089582255</v>
+        <v>24.97917905478274</v>
       </c>
       <c r="P15" t="n">
-        <v>353.3684186134537</v>
+        <v>353.4190750732176</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -36176,28 +36255,28 @@
         <v>0.0355</v>
       </c>
       <c r="I16" t="n">
-        <v>4.305264656752527</v>
+        <v>4.300441006022935</v>
       </c>
       <c r="J16" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K16" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6824745889856439</v>
+        <v>0.682993827599927</v>
       </c>
       <c r="M16" t="n">
-        <v>18.0382934217369</v>
+        <v>18.01709275866328</v>
       </c>
       <c r="N16" t="n">
-        <v>483.3362753227527</v>
+        <v>482.3399273064475</v>
       </c>
       <c r="O16" t="n">
-        <v>21.98491017317907</v>
+        <v>21.9622386679147</v>
       </c>
       <c r="P16" t="n">
-        <v>353.1647621878589</v>
+        <v>353.2131214709283</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -36254,28 +36333,28 @@
         <v>0.0367</v>
       </c>
       <c r="I17" t="n">
-        <v>4.968842390793236</v>
+        <v>4.968003810990935</v>
       </c>
       <c r="J17" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K17" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6966753203761361</v>
+        <v>0.6977311327049649</v>
       </c>
       <c r="M17" t="n">
-        <v>20.3915731166062</v>
+        <v>20.34267469277233</v>
       </c>
       <c r="N17" t="n">
-        <v>613.615267410216</v>
+        <v>612.0164467967512</v>
       </c>
       <c r="O17" t="n">
-        <v>24.77125889837285</v>
+        <v>24.73896616265019</v>
       </c>
       <c r="P17" t="n">
-        <v>342.8118529916419</v>
+        <v>342.8200854161088</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -36332,28 +36411,28 @@
         <v>0.0383</v>
       </c>
       <c r="I18" t="n">
-        <v>6.448260552060711</v>
+        <v>6.43990880705045</v>
       </c>
       <c r="J18" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K18" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7166754168932763</v>
+        <v>0.7171248159288137</v>
       </c>
       <c r="M18" t="n">
-        <v>25.55361450591403</v>
+        <v>25.53161178903243</v>
       </c>
       <c r="N18" t="n">
-        <v>941.6049983548405</v>
+        <v>939.7912010248294</v>
       </c>
       <c r="O18" t="n">
-        <v>30.68558290720319</v>
+        <v>30.65601410856978</v>
       </c>
       <c r="P18" t="n">
-        <v>322.4828451299514</v>
+        <v>322.56428038604</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -36410,28 +36489,28 @@
         <v>0.0426</v>
       </c>
       <c r="I19" t="n">
-        <v>6.9254555688039</v>
+        <v>6.919135469048597</v>
       </c>
       <c r="J19" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K19" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7291736762963795</v>
+        <v>0.7298584468761722</v>
       </c>
       <c r="M19" t="n">
-        <v>26.57323657844691</v>
+        <v>26.53856886910801</v>
       </c>
       <c r="N19" t="n">
-        <v>1010.825513233024</v>
+        <v>1008.499220458415</v>
       </c>
       <c r="O19" t="n">
-        <v>31.79348224452653</v>
+        <v>31.75687674281612</v>
       </c>
       <c r="P19" t="n">
-        <v>328.1149263119453</v>
+        <v>328.1766915286339</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -36488,28 +36567,28 @@
         <v>0.0597</v>
       </c>
       <c r="I20" t="n">
-        <v>6.796608687214213</v>
+        <v>6.788549934861465</v>
       </c>
       <c r="J20" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K20" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7202830812957051</v>
+        <v>0.7208738796576196</v>
       </c>
       <c r="M20" t="n">
-        <v>26.38053113386364</v>
+        <v>26.35854037092467</v>
       </c>
       <c r="N20" t="n">
-        <v>1005.688512122614</v>
+        <v>1003.607447561053</v>
       </c>
       <c r="O20" t="n">
-        <v>31.71259232738021</v>
+        <v>31.6797640073447</v>
       </c>
       <c r="P20" t="n">
-        <v>332.0987602133066</v>
+        <v>332.1772283404367</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -36547,7 +36626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U462"/>
+  <dimension ref="A1:U463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53036,7 +53115,7 @@
       </c>
       <c r="P178" t="inlineStr">
         <is>
-          <t>-41.72747693967609,174.21461162573573</t>
+          <t>-41.72747693967608,174.21461162573573</t>
         </is>
       </c>
       <c r="Q178" t="inlineStr">
@@ -53745,7 +53824,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>-41.727409564737385,174.2130115449797</t>
+          <t>-41.72740956473739,174.2130115449797</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
@@ -56770,7 +56849,7 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>-41.72723027450062,174.21125331928332</t>
+          <t>-41.72723027450061,174.21125331928332</t>
         </is>
       </c>
       <c r="M216" t="inlineStr">
@@ -68740,7 +68819,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>-41.72569629918221,174.20833252615748</t>
+          <t>-41.725696299182204,174.20833252615748</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -81189,6 +81268,113 @@
         </is>
       </c>
     </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:06:42+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>-41.72395142263935,174.20356788640044</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>-41.72427551161878,174.2043571906625</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>-41.72457433319493,174.2051486875316</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>-41.72488198516022,174.20589615955666</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>-41.72515775979516,174.20668556804216</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>-41.725459657141066,174.2074871720067</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>-41.7257309446101,174.20830882114538</t>
+        </is>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>-41.72602930814186,174.20909520897567</t>
+        </is>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>-41.72625063044797,174.20987206775592</t>
+        </is>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>-41.7264681114422,174.21066629005082</t>
+        </is>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>-41.72662432859886,174.21152824410248</t>
+        </is>
+      </c>
+      <c r="M463" t="inlineStr">
+        <is>
+          <t>-41.726754160925026,174.2123766593401</t>
+        </is>
+      </c>
+      <c r="N463" t="inlineStr">
+        <is>
+          <t>-41.72688623496742,174.21318077906838</t>
+        </is>
+      </c>
+      <c r="O463" t="inlineStr">
+        <is>
+          <t>-41.72693747746529,174.2138577304071</t>
+        </is>
+      </c>
+      <c r="P463" t="inlineStr">
+        <is>
+          <t>-41.727011104443164,174.21458298993602</t>
+        </is>
+      </c>
+      <c r="Q463" t="inlineStr">
+        <is>
+          <t>-41.726853106418325,174.21530582969885</t>
+        </is>
+      </c>
+      <c r="R463" t="inlineStr">
+        <is>
+          <t>-41.726663668315005,174.21615162431016</t>
+        </is>
+      </c>
+      <c r="S463" t="inlineStr">
+        <is>
+          <t>-41.72640372606448,174.2170839688895</t>
+        </is>
+      </c>
+      <c r="T463" t="inlineStr">
+        <is>
+          <t>-41.72633196784524,174.21791413829337</t>
+        </is>
+      </c>
+      <c r="U463" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0364/nzd0364.xlsx
+++ b/data/nzd0364/nzd0364.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U463"/>
+  <dimension ref="A1:U464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30021,6 +30021,75 @@
         </is>
       </c>
     </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>405.8628571428572</v>
+      </c>
+      <c r="C464" t="n">
+        <v>409.4328571428572</v>
+      </c>
+      <c r="D464" t="n">
+        <v>415.7928571428571</v>
+      </c>
+      <c r="E464" t="n">
+        <v>423.1028571428572</v>
+      </c>
+      <c r="F464" t="n">
+        <v>423.0528571428572</v>
+      </c>
+      <c r="G464" t="n">
+        <v>427.4028571428572</v>
+      </c>
+      <c r="H464" t="n">
+        <v>430.5028571428572</v>
+      </c>
+      <c r="I464" t="n">
+        <v>432.9128571428572</v>
+      </c>
+      <c r="J464" t="n">
+        <v>438.5528571428572</v>
+      </c>
+      <c r="K464" t="n">
+        <v>436.6228571428572</v>
+      </c>
+      <c r="L464" t="n">
+        <v>442.9528571428572</v>
+      </c>
+      <c r="M464" t="n">
+        <v>457.0866666666667</v>
+      </c>
+      <c r="N464" t="n">
+        <v>462.6828571428572</v>
+      </c>
+      <c r="O464" t="n">
+        <v>456.8</v>
+      </c>
+      <c r="P464" t="n">
+        <v>448.4066666666667</v>
+      </c>
+      <c r="Q464" t="n">
+        <v>458.65</v>
+      </c>
+      <c r="R464" t="n">
+        <v>475.88</v>
+      </c>
+      <c r="S464" t="n">
+        <v>499.2366666666667</v>
+      </c>
+      <c r="T464" t="n">
+        <v>502.3428571428572</v>
+      </c>
+      <c r="U464" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30032,7 +30101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B495"/>
+  <dimension ref="A1:B496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34990,6 +35059,16 @@
       </c>
       <c r="B495" t="n">
         <v>0.46</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>-0.31</v>
       </c>
     </row>
   </sheetData>
@@ -35163,28 +35242,28 @@
         <v>0.0417</v>
       </c>
       <c r="I2" t="n">
-        <v>2.224627430731129</v>
+        <v>2.222254254437158</v>
       </c>
       <c r="J2" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K2" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L2" t="n">
-        <v>0.600850304490351</v>
+        <v>0.6015797226163972</v>
       </c>
       <c r="M2" t="n">
-        <v>10.99140562588074</v>
+        <v>10.97779178528871</v>
       </c>
       <c r="N2" t="n">
-        <v>187.5814899565956</v>
+        <v>187.181406115875</v>
       </c>
       <c r="O2" t="n">
-        <v>13.69603920688736</v>
+        <v>13.68142558784994</v>
       </c>
       <c r="P2" t="n">
-        <v>352.7924609967336</v>
+        <v>352.8154715436953</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35241,28 +35320,28 @@
         <v>0.0422</v>
       </c>
       <c r="I3" t="n">
-        <v>2.342166582185175</v>
+        <v>2.339971638857564</v>
       </c>
       <c r="J3" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K3" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6120499805841297</v>
+        <v>0.6128289671319384</v>
       </c>
       <c r="M3" t="n">
-        <v>11.18106906902105</v>
+        <v>11.16665528322306</v>
       </c>
       <c r="N3" t="n">
-        <v>198.2894459763615</v>
+        <v>197.8577528379871</v>
       </c>
       <c r="O3" t="n">
-        <v>14.08152853834986</v>
+        <v>14.06619183851788</v>
       </c>
       <c r="P3" t="n">
-        <v>352.9714601687965</v>
+        <v>352.9928148899205</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35319,28 +35398,28 @@
         <v>0.041</v>
       </c>
       <c r="I4" t="n">
-        <v>2.611691357475563</v>
+        <v>2.608342104896624</v>
       </c>
       <c r="J4" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K4" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6564529769149121</v>
+        <v>0.6569925926448521</v>
       </c>
       <c r="M4" t="n">
-        <v>11.48201107051731</v>
+        <v>11.4730224924142</v>
       </c>
       <c r="N4" t="n">
-        <v>204.4805106967107</v>
+        <v>204.0943387914599</v>
       </c>
       <c r="O4" t="n">
-        <v>14.29966820232941</v>
+        <v>14.28615899363646</v>
       </c>
       <c r="P4" t="n">
-        <v>354.6265001086949</v>
+        <v>354.658841146461</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -35397,28 +35476,28 @@
         <v>0.0427</v>
       </c>
       <c r="I5" t="n">
-        <v>2.888277996691038</v>
+        <v>2.884269342068466</v>
       </c>
       <c r="J5" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K5" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6854845417152363</v>
+        <v>0.6858961167755859</v>
       </c>
       <c r="M5" t="n">
-        <v>11.9580962415217</v>
+        <v>11.95309758896111</v>
       </c>
       <c r="N5" t="n">
-        <v>219.663672329741</v>
+        <v>219.2995126785137</v>
       </c>
       <c r="O5" t="n">
-        <v>14.82105503429972</v>
+        <v>14.80876472493616</v>
       </c>
       <c r="P5" t="n">
-        <v>356.1992295720385</v>
+        <v>356.2378869688398</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -35475,28 +35554,28 @@
         <v>0.0423</v>
       </c>
       <c r="I6" t="n">
-        <v>3.174168942547579</v>
+        <v>3.16807639053275</v>
       </c>
       <c r="J6" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K6" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L6" t="n">
-        <v>0.710247853263918</v>
+        <v>0.710196008608456</v>
       </c>
       <c r="M6" t="n">
-        <v>12.40172850518634</v>
+        <v>12.4062218508672</v>
       </c>
       <c r="N6" t="n">
-        <v>235.7154246749095</v>
+        <v>235.5479319008419</v>
       </c>
       <c r="O6" t="n">
-        <v>15.35302656400065</v>
+        <v>15.34757087948584</v>
       </c>
       <c r="P6" t="n">
-        <v>353.2686845629357</v>
+        <v>353.3279501139903</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -35553,28 +35632,28 @@
         <v>0.0394</v>
       </c>
       <c r="I7" t="n">
-        <v>3.299521122547912</v>
+        <v>3.294965806940925</v>
       </c>
       <c r="J7" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K7" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7062187035277765</v>
+        <v>0.7064996568454034</v>
       </c>
       <c r="M7" t="n">
-        <v>13.26065652452446</v>
+        <v>13.25633215769721</v>
       </c>
       <c r="N7" t="n">
-        <v>261.3641819124231</v>
+        <v>260.9858583654587</v>
       </c>
       <c r="O7" t="n">
-        <v>16.16676163962416</v>
+        <v>16.15505674287338</v>
       </c>
       <c r="P7" t="n">
-        <v>351.4878579132113</v>
+        <v>351.5323203760248</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -35631,28 +35710,28 @@
         <v>0.0449</v>
       </c>
       <c r="I8" t="n">
-        <v>3.189794797991011</v>
+        <v>3.18627241235797</v>
       </c>
       <c r="J8" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K8" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6702108847663886</v>
+        <v>0.6707260650797318</v>
       </c>
       <c r="M8" t="n">
-        <v>13.82489775034326</v>
+        <v>13.81291211351745</v>
       </c>
       <c r="N8" t="n">
-        <v>289.7752404018394</v>
+        <v>289.2328402680388</v>
       </c>
       <c r="O8" t="n">
-        <v>17.02278591775856</v>
+        <v>17.00684686436727</v>
       </c>
       <c r="P8" t="n">
-        <v>355.1596451732247</v>
+        <v>355.1939582035286</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35709,28 +35788,28 @@
         <v>0.0417</v>
       </c>
       <c r="I9" t="n">
-        <v>3.214412015390652</v>
+        <v>3.210693639618998</v>
       </c>
       <c r="J9" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K9" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6583866556829934</v>
+        <v>0.6588847026691593</v>
       </c>
       <c r="M9" t="n">
-        <v>14.3842850120275</v>
+        <v>14.37050339912992</v>
       </c>
       <c r="N9" t="n">
-        <v>308.1885801826478</v>
+        <v>307.6124374023119</v>
       </c>
       <c r="O9" t="n">
-        <v>17.55530062923013</v>
+        <v>17.53888358483264</v>
       </c>
       <c r="P9" t="n">
-        <v>357.298468803737</v>
+        <v>357.3349575667453</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35787,28 +35866,28 @@
         <v>0.0425</v>
       </c>
       <c r="I10" t="n">
-        <v>3.364845696383486</v>
+        <v>3.361471817602037</v>
       </c>
       <c r="J10" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K10" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L10" t="n">
-        <v>0.670647982307522</v>
+        <v>0.6712592410644997</v>
       </c>
       <c r="M10" t="n">
-        <v>14.66556022804873</v>
+        <v>14.64798544164035</v>
       </c>
       <c r="N10" t="n">
-        <v>316.8569275863384</v>
+        <v>316.2133005106276</v>
       </c>
       <c r="O10" t="n">
-        <v>17.80047548764747</v>
+        <v>17.7823873681412</v>
       </c>
       <c r="P10" t="n">
-        <v>358.0668133626909</v>
+        <v>358.1000999915188</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35865,28 +35944,28 @@
         <v>0.041</v>
       </c>
       <c r="I11" t="n">
-        <v>3.543921011501302</v>
+        <v>3.539911406184725</v>
       </c>
       <c r="J11" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K11" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6639055244663371</v>
+        <v>0.6644580559257434</v>
       </c>
       <c r="M11" t="n">
-        <v>15.79119143494436</v>
+        <v>15.77225530561887</v>
       </c>
       <c r="N11" t="n">
-        <v>358.6329430521077</v>
+        <v>357.9187759434988</v>
       </c>
       <c r="O11" t="n">
-        <v>18.93760658193394</v>
+        <v>18.91874139427618</v>
       </c>
       <c r="P11" t="n">
-        <v>352.6583522954294</v>
+        <v>352.6983481499549</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35943,28 +36022,28 @@
         <v>0.0449</v>
       </c>
       <c r="I12" t="n">
-        <v>3.928312589733498</v>
+        <v>3.924085476197795</v>
       </c>
       <c r="J12" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K12" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6753875741300672</v>
+        <v>0.6759812395059694</v>
       </c>
       <c r="M12" t="n">
-        <v>17.01138342608974</v>
+        <v>16.98918059873744</v>
       </c>
       <c r="N12" t="n">
-        <v>416.2603452258132</v>
+        <v>415.3978281948581</v>
       </c>
       <c r="O12" t="n">
-        <v>20.40245929357079</v>
+        <v>20.38131075752632</v>
       </c>
       <c r="P12" t="n">
-        <v>349.2410783208426</v>
+        <v>349.2834489051106</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -36021,28 +36100,28 @@
         <v>0.0352</v>
       </c>
       <c r="I13" t="n">
-        <v>4.253227722184277</v>
+        <v>4.25178318230579</v>
       </c>
       <c r="J13" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K13" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6763099717552932</v>
+        <v>0.6772672593280107</v>
       </c>
       <c r="M13" t="n">
-        <v>18.13329783333554</v>
+        <v>18.09718886013136</v>
       </c>
       <c r="N13" t="n">
-        <v>488.9047442459711</v>
+        <v>487.7324712238383</v>
       </c>
       <c r="O13" t="n">
-        <v>22.11119047554815</v>
+        <v>22.08466597492111</v>
       </c>
       <c r="P13" t="n">
-        <v>349.3140050406187</v>
+        <v>349.328449677094</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -36099,28 +36178,28 @@
         <v>0.0437</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5738512906903</v>
+        <v>4.57036263069505</v>
       </c>
       <c r="J14" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K14" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6957975736113291</v>
+        <v>0.6965420566800303</v>
       </c>
       <c r="M14" t="n">
-        <v>18.78959887391936</v>
+        <v>18.76000249776722</v>
       </c>
       <c r="N14" t="n">
-        <v>513.513206472665</v>
+        <v>512.3049244648402</v>
       </c>
       <c r="O14" t="n">
-        <v>22.66082978340963</v>
+        <v>22.63415393746451</v>
       </c>
       <c r="P14" t="n">
-        <v>350.5342799591962</v>
+        <v>350.5695731350096</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -36177,28 +36256,28 @@
         <v>0.0302</v>
       </c>
       <c r="I15" t="n">
-        <v>4.688556627971788</v>
+        <v>4.679277418721832</v>
       </c>
       <c r="J15" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K15" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6652157320286991</v>
+        <v>0.6651795499645412</v>
       </c>
       <c r="M15" t="n">
-        <v>20.22380594479926</v>
+        <v>20.22594815742821</v>
       </c>
       <c r="N15" t="n">
-        <v>623.9593862508965</v>
+        <v>623.2462087627546</v>
       </c>
       <c r="O15" t="n">
-        <v>24.97917905478274</v>
+        <v>24.96489953440139</v>
       </c>
       <c r="P15" t="n">
-        <v>353.4190750732176</v>
+        <v>353.5128416274482</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -36255,28 +36334,28 @@
         <v>0.0355</v>
       </c>
       <c r="I16" t="n">
-        <v>4.300441006022935</v>
+        <v>4.292176177437868</v>
       </c>
       <c r="J16" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K16" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L16" t="n">
-        <v>0.682993827599927</v>
+        <v>0.6829712261493546</v>
       </c>
       <c r="M16" t="n">
-        <v>18.01709275866328</v>
+        <v>18.01339443271841</v>
       </c>
       <c r="N16" t="n">
-        <v>482.3399273064475</v>
+        <v>481.8266772563873</v>
       </c>
       <c r="O16" t="n">
-        <v>21.9622386679147</v>
+        <v>21.95055072786073</v>
       </c>
       <c r="P16" t="n">
-        <v>353.2131214709283</v>
+        <v>353.2966084790702</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -36333,28 +36412,28 @@
         <v>0.0367</v>
       </c>
       <c r="I17" t="n">
-        <v>4.968003810990935</v>
+        <v>4.961224268225291</v>
       </c>
       <c r="J17" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K17" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6977311327049649</v>
+        <v>0.6981366902919035</v>
       </c>
       <c r="M17" t="n">
-        <v>20.34267469277233</v>
+        <v>20.32517464075297</v>
       </c>
       <c r="N17" t="n">
-        <v>612.0164467967512</v>
+        <v>610.901622208506</v>
       </c>
       <c r="O17" t="n">
-        <v>24.73896616265019</v>
+        <v>24.71642413878889</v>
       </c>
       <c r="P17" t="n">
-        <v>342.8200854161088</v>
+        <v>342.88714492972</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -36411,28 +36490,28 @@
         <v>0.0383</v>
       </c>
       <c r="I18" t="n">
-        <v>6.43990880705045</v>
+        <v>6.432466039570169</v>
       </c>
       <c r="J18" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K18" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7171248159288137</v>
+        <v>0.7176830412184886</v>
       </c>
       <c r="M18" t="n">
-        <v>25.53161178903243</v>
+        <v>25.50407059554241</v>
       </c>
       <c r="N18" t="n">
-        <v>939.7912010248294</v>
+        <v>937.833437816062</v>
       </c>
       <c r="O18" t="n">
-        <v>30.65601410856978</v>
+        <v>30.62406631745794</v>
       </c>
       <c r="P18" t="n">
-        <v>322.56428038604</v>
+        <v>322.6373985391406</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -36489,28 +36568,28 @@
         <v>0.0426</v>
       </c>
       <c r="I19" t="n">
-        <v>6.919135469048597</v>
+        <v>6.914303223910834</v>
       </c>
       <c r="J19" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K19" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7298584468761722</v>
+        <v>0.7306782115354031</v>
       </c>
       <c r="M19" t="n">
-        <v>26.53856886910801</v>
+        <v>26.49535159311095</v>
       </c>
       <c r="N19" t="n">
-        <v>1008.499220458415</v>
+        <v>1006.017882111914</v>
       </c>
       <c r="O19" t="n">
-        <v>31.75687674281612</v>
+        <v>31.71778494964479</v>
       </c>
       <c r="P19" t="n">
-        <v>328.1766915286339</v>
+        <v>328.2242641548423</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -36567,28 +36646,28 @@
         <v>0.0597</v>
       </c>
       <c r="I20" t="n">
-        <v>6.788549934861465</v>
+        <v>6.784943828663781</v>
       </c>
       <c r="J20" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K20" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7208738796576196</v>
+        <v>0.7218450998954926</v>
       </c>
       <c r="M20" t="n">
-        <v>26.35854037092467</v>
+        <v>26.30953201659996</v>
       </c>
       <c r="N20" t="n">
-        <v>1003.607447561053</v>
+        <v>1001.045615837451</v>
       </c>
       <c r="O20" t="n">
-        <v>31.6797640073447</v>
+        <v>31.63930492026415</v>
       </c>
       <c r="P20" t="n">
-        <v>332.1772283404367</v>
+        <v>332.212589386879</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -36626,7 +36705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U463"/>
+  <dimension ref="A1:U464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81375,6 +81454,113 @@
         </is>
       </c>
     </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>-41.72391573254199,174.20359914855155</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>-41.724261581885195,174.20436939207997</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>-41.724579750251806,174.2051441526298</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>-41.724855144805645,174.20591608071658</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>-41.72515759964972,174.20668567808863</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>-41.725434748843625,174.20750426955473</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>-41.725721086807084,174.20831556603076</t>
+        </is>
+      </c>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>-41.726006761557876,174.20911001346656</t>
+        </is>
+      </c>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>-41.726230817580145,174.2098829840572</t>
+        </is>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>-41.726463019893465,174.21066870572014</t>
+        </is>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>-41.72663566938231,174.21152309870402</t>
+        </is>
+      </c>
+      <c r="M464" t="inlineStr">
+        <is>
+          <t>-41.726718564150126,174.21239119340663</t>
+        </is>
+      </c>
+      <c r="N464" t="inlineStr">
+        <is>
+          <t>-41.7268455344476,174.21319394066506</t>
+        </is>
+      </c>
+      <c r="O464" t="inlineStr">
+        <is>
+          <t>-41.72700811437773,174.2138499501122</t>
+        </is>
+      </c>
+      <c r="P464" t="inlineStr">
+        <is>
+          <t>-41.72706856165625,174.21458652191603</t>
+        </is>
+      </c>
+      <c r="Q464" t="inlineStr">
+        <is>
+          <t>-41.72695279145587,174.21532715372842</t>
+        </is>
+      </c>
+      <c r="R464" t="inlineStr">
+        <is>
+          <t>-41.72663953396683,174.21614602447428</t>
+        </is>
+      </c>
+      <c r="S464" t="inlineStr">
+        <is>
+          <t>-41.72636902177878,174.21707819117194</t>
+        </is>
+      </c>
+      <c r="T464" t="inlineStr">
+        <is>
+          <t>-41.7262488217254,174.21789636248482</t>
+        </is>
+      </c>
+      <c r="U464" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0364/nzd0364.xlsx
+++ b/data/nzd0364/nzd0364.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U464"/>
+  <dimension ref="A1:U467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30090,6 +30090,213 @@
         </is>
       </c>
     </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:07:09+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>399.7814285714285</v>
+      </c>
+      <c r="C465" t="n">
+        <v>405.3714285714286</v>
+      </c>
+      <c r="D465" t="n">
+        <v>413.2914285714286</v>
+      </c>
+      <c r="E465" t="n">
+        <v>418.9814285714286</v>
+      </c>
+      <c r="F465" t="n">
+        <v>423.3614285714286</v>
+      </c>
+      <c r="G465" t="n">
+        <v>426.1614285714285</v>
+      </c>
+      <c r="H465" t="n">
+        <v>427.1114285714286</v>
+      </c>
+      <c r="I465" t="n">
+        <v>427.1014285714285</v>
+      </c>
+      <c r="J465" t="n">
+        <v>426.8714285714286</v>
+      </c>
+      <c r="K465" t="n">
+        <v>429.9514285714286</v>
+      </c>
+      <c r="L465" t="n">
+        <v>443.9614285714285</v>
+      </c>
+      <c r="M465" t="n">
+        <v>445.9733333333333</v>
+      </c>
+      <c r="N465" t="n">
+        <v>458.1314285714286</v>
+      </c>
+      <c r="O465" t="n">
+        <v>456.18</v>
+      </c>
+      <c r="P465" t="n">
+        <v>447.9233333333333</v>
+      </c>
+      <c r="Q465" t="n">
+        <v>456.28</v>
+      </c>
+      <c r="R465" t="n">
+        <v>477.66</v>
+      </c>
+      <c r="S465" t="n">
+        <v>498.8733333333333</v>
+      </c>
+      <c r="T465" t="n">
+        <v>500.9214285714286</v>
+      </c>
+      <c r="U465" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:07:16+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>401.9428571428572</v>
+      </c>
+      <c r="C466" t="n">
+        <v>404.7128571428572</v>
+      </c>
+      <c r="D466" t="n">
+        <v>411.5928571428572</v>
+      </c>
+      <c r="E466" t="n">
+        <v>418.4228571428571</v>
+      </c>
+      <c r="F466" t="n">
+        <v>422.6128571428572</v>
+      </c>
+      <c r="G466" t="n">
+        <v>426.4228571428571</v>
+      </c>
+      <c r="H466" t="n">
+        <v>428.5728571428572</v>
+      </c>
+      <c r="I466" t="n">
+        <v>427.3428571428572</v>
+      </c>
+      <c r="J466" t="n">
+        <v>431.7428571428572</v>
+      </c>
+      <c r="K466" t="n">
+        <v>432.4628571428572</v>
+      </c>
+      <c r="L466" t="n">
+        <v>438.7928571428571</v>
+      </c>
+      <c r="M466" t="n">
+        <v>447.5733333333333</v>
+      </c>
+      <c r="N466" t="n">
+        <v>455.0328571428572</v>
+      </c>
+      <c r="O466" t="n">
+        <v>455.41</v>
+      </c>
+      <c r="P466" t="n">
+        <v>446.1133333333333</v>
+      </c>
+      <c r="Q466" t="n">
+        <v>458.59</v>
+      </c>
+      <c r="R466" t="n">
+        <v>479.33</v>
+      </c>
+      <c r="S466" t="n">
+        <v>497.8633333333333</v>
+      </c>
+      <c r="T466" t="n">
+        <v>503.1228571428572</v>
+      </c>
+      <c r="U466" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>413.4814285714286</v>
+      </c>
+      <c r="C467" t="n">
+        <v>411.8114285714286</v>
+      </c>
+      <c r="D467" t="n">
+        <v>420.4014285714285</v>
+      </c>
+      <c r="E467" t="n">
+        <v>427.7214285714285</v>
+      </c>
+      <c r="F467" t="n">
+        <v>428.6014285714285</v>
+      </c>
+      <c r="G467" t="n">
+        <v>435.0714285714286</v>
+      </c>
+      <c r="H467" t="n">
+        <v>436.6814285714286</v>
+      </c>
+      <c r="I467" t="n">
+        <v>436.4814285714286</v>
+      </c>
+      <c r="J467" t="n">
+        <v>439.7014285714286</v>
+      </c>
+      <c r="K467" t="n">
+        <v>438.9014285714285</v>
+      </c>
+      <c r="L467" t="n">
+        <v>445.8714285714286</v>
+      </c>
+      <c r="M467" t="n">
+        <v>456.9233333333333</v>
+      </c>
+      <c r="N467" t="n">
+        <v>462.2814285714285</v>
+      </c>
+      <c r="O467" t="n">
+        <v>466.55</v>
+      </c>
+      <c r="P467" t="n">
+        <v>455.3433333333333</v>
+      </c>
+      <c r="Q467" t="n">
+        <v>460.85</v>
+      </c>
+      <c r="R467" t="n">
+        <v>485.58</v>
+      </c>
+      <c r="S467" t="n">
+        <v>505.4133333333333</v>
+      </c>
+      <c r="T467" t="n">
+        <v>503.4514285714286</v>
+      </c>
+      <c r="U467" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30101,7 +30308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B496"/>
+  <dimension ref="A1:B499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35069,6 +35276,36 @@
       </c>
       <c r="B496" t="n">
         <v>-0.31</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>
@@ -35242,28 +35479,28 @@
         <v>0.0417</v>
       </c>
       <c r="I2" t="n">
-        <v>2.222254254437158</v>
+        <v>2.214053914717677</v>
       </c>
       <c r="J2" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K2" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6015797226163972</v>
+        <v>0.6030696142171991</v>
       </c>
       <c r="M2" t="n">
-        <v>10.97779178528871</v>
+        <v>10.95628674708902</v>
       </c>
       <c r="N2" t="n">
-        <v>187.181406115875</v>
+        <v>186.3143693657849</v>
       </c>
       <c r="O2" t="n">
-        <v>13.68142558784994</v>
+        <v>13.64970217132172</v>
       </c>
       <c r="P2" t="n">
-        <v>352.8154715436953</v>
+        <v>352.8950664091001</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35320,28 +35557,28 @@
         <v>0.0422</v>
       </c>
       <c r="I3" t="n">
-        <v>2.339971638857564</v>
+        <v>2.330393561889963</v>
       </c>
       <c r="J3" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K3" t="n">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6128289671319384</v>
+        <v>0.6142096542127341</v>
       </c>
       <c r="M3" t="n">
-        <v>11.16665528322306</v>
+        <v>11.14155849153875</v>
       </c>
       <c r="N3" t="n">
-        <v>197.8577528379871</v>
+        <v>196.8233397831973</v>
       </c>
       <c r="O3" t="n">
-        <v>14.06619183851788</v>
+        <v>14.02937417646266</v>
       </c>
       <c r="P3" t="n">
-        <v>352.9928148899205</v>
+        <v>353.0861701302363</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35398,28 +35635,28 @@
         <v>0.041</v>
       </c>
       <c r="I4" t="n">
-        <v>2.608342104896624</v>
+        <v>2.597389527220133</v>
       </c>
       <c r="J4" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K4" t="n">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6569925926448521</v>
+        <v>0.6582067965866112</v>
       </c>
       <c r="M4" t="n">
-        <v>11.4730224924142</v>
+        <v>11.45263912776441</v>
       </c>
       <c r="N4" t="n">
-        <v>204.0943387914599</v>
+        <v>203.1257155822837</v>
       </c>
       <c r="O4" t="n">
-        <v>14.28615899363646</v>
+        <v>14.25221791800433</v>
       </c>
       <c r="P4" t="n">
-        <v>354.658841146461</v>
+        <v>354.7647928745924</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -35476,28 +35713,28 @@
         <v>0.0427</v>
       </c>
       <c r="I5" t="n">
-        <v>2.884269342068466</v>
+        <v>2.870403390975795</v>
       </c>
       <c r="J5" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K5" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6858961167755859</v>
+        <v>0.6865045894685805</v>
       </c>
       <c r="M5" t="n">
-        <v>11.95309758896111</v>
+        <v>11.9489701716371</v>
       </c>
       <c r="N5" t="n">
-        <v>219.2995126785137</v>
+        <v>218.526419570291</v>
       </c>
       <c r="O5" t="n">
-        <v>14.80876472493616</v>
+        <v>14.78263912737814</v>
       </c>
       <c r="P5" t="n">
-        <v>356.2378869688398</v>
+        <v>356.3718509360427</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -35554,28 +35791,28 @@
         <v>0.0423</v>
       </c>
       <c r="I6" t="n">
-        <v>3.16807639053275</v>
+        <v>3.152555614638347</v>
       </c>
       <c r="J6" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K6" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L6" t="n">
-        <v>0.710196008608456</v>
+        <v>0.7105919742010174</v>
       </c>
       <c r="M6" t="n">
-        <v>12.4062218508672</v>
+        <v>12.4047588728356</v>
       </c>
       <c r="N6" t="n">
-        <v>235.5479319008419</v>
+        <v>234.7842688700708</v>
       </c>
       <c r="O6" t="n">
-        <v>15.34757087948584</v>
+        <v>15.32267172754382</v>
       </c>
       <c r="P6" t="n">
-        <v>353.3279501139903</v>
+        <v>353.4792502049913</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -35632,28 +35869,28 @@
         <v>0.0394</v>
       </c>
       <c r="I7" t="n">
-        <v>3.294965806940925</v>
+        <v>3.283840821218746</v>
       </c>
       <c r="J7" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K7" t="n">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7064996568454034</v>
+        <v>0.707716586425706</v>
       </c>
       <c r="M7" t="n">
-        <v>13.25633215769721</v>
+        <v>13.22905084825541</v>
       </c>
       <c r="N7" t="n">
-        <v>260.9858583654587</v>
+        <v>259.7484563834214</v>
       </c>
       <c r="O7" t="n">
-        <v>16.15505674287338</v>
+        <v>16.11671357266802</v>
       </c>
       <c r="P7" t="n">
-        <v>351.5323203760248</v>
+        <v>351.6411062459483</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -35710,28 +35947,28 @@
         <v>0.0449</v>
       </c>
       <c r="I8" t="n">
-        <v>3.18627241235797</v>
+        <v>3.176141290574718</v>
       </c>
       <c r="J8" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K8" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6707260650797318</v>
+        <v>0.6722204904113658</v>
       </c>
       <c r="M8" t="n">
-        <v>13.81291211351745</v>
+        <v>13.77456132023363</v>
       </c>
       <c r="N8" t="n">
-        <v>289.2328402680388</v>
+        <v>287.7153850481192</v>
       </c>
       <c r="O8" t="n">
-        <v>17.00684686436727</v>
+        <v>16.9621751272683</v>
       </c>
       <c r="P8" t="n">
-        <v>355.1939582035286</v>
+        <v>355.2928225211311</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35788,28 +36025,28 @@
         <v>0.0417</v>
       </c>
       <c r="I9" t="n">
-        <v>3.210693639618998</v>
+        <v>3.196110588839665</v>
       </c>
       <c r="J9" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K9" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6588847026691593</v>
+        <v>0.6595051005947722</v>
       </c>
       <c r="M9" t="n">
-        <v>14.37050339912992</v>
+        <v>14.34878771844479</v>
       </c>
       <c r="N9" t="n">
-        <v>307.6124374023119</v>
+        <v>306.3813350758919</v>
       </c>
       <c r="O9" t="n">
-        <v>17.53888358483264</v>
+        <v>17.50375202851925</v>
       </c>
       <c r="P9" t="n">
-        <v>357.3349575667453</v>
+        <v>357.4783426673637</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35866,28 +36103,28 @@
         <v>0.0425</v>
       </c>
       <c r="I10" t="n">
-        <v>3.361471817602037</v>
+        <v>3.343423068485073</v>
       </c>
       <c r="J10" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K10" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6712592410644997</v>
+        <v>0.6712811580601916</v>
       </c>
       <c r="M10" t="n">
-        <v>14.64798544164035</v>
+        <v>14.63866444756506</v>
       </c>
       <c r="N10" t="n">
-        <v>316.2133005106276</v>
+        <v>315.338176822096</v>
       </c>
       <c r="O10" t="n">
-        <v>17.7823873681412</v>
+        <v>17.757763846332</v>
       </c>
       <c r="P10" t="n">
-        <v>358.1000999915188</v>
+        <v>358.278508338482</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35944,28 +36181,28 @@
         <v>0.041</v>
       </c>
       <c r="I11" t="n">
-        <v>3.539911406184725</v>
+        <v>3.523943046397573</v>
       </c>
       <c r="J11" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K11" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6644580559257434</v>
+        <v>0.6652531607053875</v>
       </c>
       <c r="M11" t="n">
-        <v>15.77225530561887</v>
+        <v>15.73532139811928</v>
       </c>
       <c r="N11" t="n">
-        <v>357.9187759434988</v>
+        <v>356.3117846696441</v>
       </c>
       <c r="O11" t="n">
-        <v>18.91874139427618</v>
+        <v>18.87622273310113</v>
       </c>
       <c r="P11" t="n">
-        <v>352.6983481499549</v>
+        <v>352.8579514581133</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -36022,28 +36259,28 @@
         <v>0.0449</v>
       </c>
       <c r="I12" t="n">
-        <v>3.924085476197795</v>
+        <v>3.911340709885257</v>
       </c>
       <c r="J12" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K12" t="n">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6759812395059694</v>
+        <v>0.6776657813147228</v>
       </c>
       <c r="M12" t="n">
-        <v>16.98918059873744</v>
+        <v>16.923443365428</v>
       </c>
       <c r="N12" t="n">
-        <v>415.3978281948581</v>
+        <v>412.9199376886278</v>
       </c>
       <c r="O12" t="n">
-        <v>20.38131075752632</v>
+        <v>20.32043153303167</v>
       </c>
       <c r="P12" t="n">
-        <v>349.2834489051106</v>
+        <v>349.4114830767391</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -36100,28 +36337,28 @@
         <v>0.0352</v>
       </c>
       <c r="I13" t="n">
-        <v>4.25178318230579</v>
+        <v>4.237710278060539</v>
       </c>
       <c r="J13" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K13" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6772672593280107</v>
+        <v>0.6787198009369257</v>
       </c>
       <c r="M13" t="n">
-        <v>18.09718886013136</v>
+        <v>18.04467786824569</v>
       </c>
       <c r="N13" t="n">
-        <v>487.7324712238383</v>
+        <v>485.0850026847128</v>
       </c>
       <c r="O13" t="n">
-        <v>22.08466597492111</v>
+        <v>22.0246453475354</v>
       </c>
       <c r="P13" t="n">
-        <v>349.328449677094</v>
+        <v>349.4694310356416</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -36178,28 +36415,28 @@
         <v>0.0437</v>
       </c>
       <c r="I14" t="n">
-        <v>4.57036263069505</v>
+        <v>4.55373243170682</v>
       </c>
       <c r="J14" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K14" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6965420566800303</v>
+        <v>0.6978820214946646</v>
       </c>
       <c r="M14" t="n">
-        <v>18.76000249776722</v>
+        <v>18.70586708295664</v>
       </c>
       <c r="N14" t="n">
-        <v>512.3049244648402</v>
+        <v>509.3897345401861</v>
       </c>
       <c r="O14" t="n">
-        <v>22.63415393746451</v>
+        <v>22.5696640325058</v>
       </c>
       <c r="P14" t="n">
-        <v>350.5695731350096</v>
+        <v>350.7381914340754</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -36256,28 +36493,28 @@
         <v>0.0302</v>
       </c>
       <c r="I15" t="n">
-        <v>4.679277418721832</v>
+        <v>4.655584984419716</v>
       </c>
       <c r="J15" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K15" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6651795499645412</v>
+        <v>0.6656055327945574</v>
       </c>
       <c r="M15" t="n">
-        <v>20.22594815742821</v>
+        <v>20.20792863832639</v>
       </c>
       <c r="N15" t="n">
-        <v>623.2462087627546</v>
+        <v>620.6124286750295</v>
       </c>
       <c r="O15" t="n">
-        <v>24.96489953440139</v>
+        <v>24.91209402428928</v>
       </c>
       <c r="P15" t="n">
-        <v>353.5128416274482</v>
+        <v>353.7527635264684</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -36334,28 +36571,28 @@
         <v>0.0355</v>
       </c>
       <c r="I16" t="n">
-        <v>4.292176177437868</v>
+        <v>4.269721160879572</v>
       </c>
       <c r="J16" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K16" t="n">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6829712261493546</v>
+        <v>0.6832013387240827</v>
       </c>
       <c r="M16" t="n">
-        <v>18.01339443271841</v>
+        <v>17.99181042004557</v>
       </c>
       <c r="N16" t="n">
-        <v>481.8266772563873</v>
+        <v>480.0691747697178</v>
       </c>
       <c r="O16" t="n">
-        <v>21.95055072786073</v>
+        <v>21.91048093424053</v>
       </c>
       <c r="P16" t="n">
-        <v>353.2966084790702</v>
+        <v>353.5239342149466</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -36412,28 +36649,28 @@
         <v>0.0367</v>
       </c>
       <c r="I17" t="n">
-        <v>4.961224268225291</v>
+        <v>4.940957938775444</v>
       </c>
       <c r="J17" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K17" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6981366902919035</v>
+        <v>0.6992969993259318</v>
       </c>
       <c r="M17" t="n">
-        <v>20.32517464075297</v>
+        <v>20.27319515003958</v>
       </c>
       <c r="N17" t="n">
-        <v>610.901622208506</v>
+        <v>607.6385838962094</v>
       </c>
       <c r="O17" t="n">
-        <v>24.71642413878889</v>
+        <v>24.6503262432003</v>
       </c>
       <c r="P17" t="n">
-        <v>342.88714492972</v>
+        <v>343.088072146312</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -36490,28 +36727,28 @@
         <v>0.0383</v>
       </c>
       <c r="I18" t="n">
-        <v>6.432466039570169</v>
+        <v>6.417774260726068</v>
       </c>
       <c r="J18" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K18" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7176830412184886</v>
+        <v>0.719971348433399</v>
       </c>
       <c r="M18" t="n">
-        <v>25.50407059554241</v>
+        <v>25.38037561883877</v>
       </c>
       <c r="N18" t="n">
-        <v>937.833437816062</v>
+        <v>931.1767814665812</v>
       </c>
       <c r="O18" t="n">
-        <v>30.62406631745794</v>
+        <v>30.51518935655785</v>
       </c>
       <c r="P18" t="n">
-        <v>322.6373985391406</v>
+        <v>322.7820233267136</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -36568,28 +36805,28 @@
         <v>0.0426</v>
       </c>
       <c r="I19" t="n">
-        <v>6.914303223910834</v>
+        <v>6.901955711655928</v>
       </c>
       <c r="J19" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K19" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7306782115354031</v>
+        <v>0.7332234226517933</v>
       </c>
       <c r="M19" t="n">
-        <v>26.49535159311095</v>
+        <v>26.35513889839321</v>
       </c>
       <c r="N19" t="n">
-        <v>1006.017882111914</v>
+        <v>998.559579088456</v>
       </c>
       <c r="O19" t="n">
-        <v>31.71778494964479</v>
+        <v>31.59999334000651</v>
       </c>
       <c r="P19" t="n">
-        <v>328.2242641548423</v>
+        <v>328.3460608688657</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -36646,28 +36883,28 @@
         <v>0.0597</v>
       </c>
       <c r="I20" t="n">
-        <v>6.784943828663781</v>
+        <v>6.774148863178088</v>
       </c>
       <c r="J20" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K20" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7218450998954926</v>
+        <v>0.7246955610035932</v>
       </c>
       <c r="M20" t="n">
-        <v>26.30953201659996</v>
+        <v>26.16367040524638</v>
       </c>
       <c r="N20" t="n">
-        <v>1001.045615837451</v>
+        <v>993.4571446792312</v>
       </c>
       <c r="O20" t="n">
-        <v>31.63930492026415</v>
+        <v>31.51915520249918</v>
       </c>
       <c r="P20" t="n">
-        <v>332.212589386879</v>
+        <v>332.3186745250489</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -36705,7 +36942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U464"/>
+  <dimension ref="A1:U467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81561,6 +81798,327 @@
         </is>
       </c>
     </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:07:09+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>-41.723961522999936,174.2035590391489</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>-41.72429216275813,174.20434260548637</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>-41.72459883529387,174.20512817553507</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>-41.7248875848651,174.20589200340143</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>-41.725155128834245,174.20668737594835</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>-41.72544469156808,174.20749744467378</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>-41.72574826732227,174.2082969686299</t>
+        </is>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>-41.72605372494731,174.20907917645093</t>
+        </is>
+      </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>-41.72632806236046,174.2098294050051</t>
+        </is>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>-41.7265196330635,174.21064184575692</t>
+        </is>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>-41.726627069389714,174.21152700058528</t>
+        </is>
+      </c>
+      <c r="M465" t="inlineStr">
+        <is>
+          <t>-41.72681427353909,174.21235211548583</t>
+        </is>
+      </c>
+      <c r="N465" t="inlineStr">
+        <is>
+          <t>-41.72688537219143,174.21318105807012</t>
+        </is>
+      </c>
+      <c r="O465" t="inlineStr">
+        <is>
+          <t>-41.72701367916621,174.21384933717852</t>
+        </is>
+      </c>
+      <c r="P465" t="inlineStr">
+        <is>
+          <t>-41.727072909931735,174.2145867892113</t>
+        </is>
+      </c>
+      <c r="Q465" t="inlineStr">
+        <is>
+          <t>-41.72697386670384,174.215331662029</t>
+        </is>
+      </c>
+      <c r="R465" t="inlineStr">
+        <is>
+          <t>-41.72662374016523,174.21614235987818</t>
+        </is>
+      </c>
+      <c r="S465" t="inlineStr">
+        <is>
+          <t>-41.72637226878921,174.21707873174782</t>
+        </is>
+      </c>
+      <c r="T465" t="inlineStr">
+        <is>
+          <t>-41.72626146196851,174.21789906483917</t>
+        </is>
+      </c>
+      <c r="U465" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:07:16+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>-41.72394524840367,174.2035732946231</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>-41.72429712152731,174.2043382619667</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>-41.72461179481005,174.20511732643456</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>-41.72489198142045,174.20588874023488</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>-41.72516112284952,174.2066832570662</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>-41.725442597760775,174.20749888190437</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>-41.72573655474174,174.2083049825918</t>
+        </is>
+      </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>-41.72605177391188,174.2090804575373</t>
+        </is>
+      </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>-41.726287509018576,174.20985174874065</t>
+        </is>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>-41.72649832129702,174.21065195707183</t>
+        </is>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>-41.72667114130504,174.21150700481476</t>
+        </is>
+      </c>
+      <c r="M466" t="inlineStr">
+        <is>
+          <t>-41.72680049414379,174.21235774158816</t>
+        </is>
+      </c>
+      <c r="N466" t="inlineStr">
+        <is>
+          <t>-41.72691249336648,174.21317228770715</t>
+        </is>
+      </c>
+      <c r="O466" t="inlineStr">
+        <is>
+          <t>-41.727020590274485,174.21384857595433</t>
+        </is>
+      </c>
+      <c r="P466" t="inlineStr">
+        <is>
+          <t>-41.727089193473695,174.2145877901863</t>
+        </is>
+      </c>
+      <c r="Q466" t="inlineStr">
+        <is>
+          <t>-41.726953325006455,174.21532726786256</t>
+        </is>
+      </c>
+      <c r="R466" t="inlineStr">
+        <is>
+          <t>-41.7266089223849,174.21613892174759</t>
+        </is>
+      </c>
+      <c r="S466" t="inlineStr">
+        <is>
+          <t>-41.72638129488245,174.21708023444987</t>
+        </is>
+      </c>
+      <c r="T466" t="inlineStr">
+        <is>
+          <t>-41.726241885471346,174.21789487958534</t>
+        </is>
+      </c>
+      <c r="U466" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>-41.723858368061364,174.20364939593352</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>-41.72424367222588,174.20438507960898</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>-41.7245445884268,174.20517358841767</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>-41.724818791693316,174.2059430623033</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>-41.72511317072332,174.206716208102</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>-41.7253733304864,174.2075464282669</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>-41.725671568801154,174.20834944710248</t>
+        </is>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>-41.725977923169694,174.20912894925212</t>
+        </is>
+      </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>-41.72622125602773,174.2098882521858</t>
+        </is>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>-41.72644368413056,174.21067787950858</t>
+        </is>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>-41.726610783001135,174.21153438983922</t>
+        </is>
+      </c>
+      <c r="M467" t="inlineStr">
+        <is>
+          <t>-41.726719970796914,174.21239061907687</t>
+        </is>
+      </c>
+      <c r="N467" t="inlineStr">
+        <is>
+          <t>-41.726849048071635,174.21319280444183</t>
+        </is>
+      </c>
+      <c r="O467" t="inlineStr">
+        <is>
+          <t>-41.72692060359023,174.21385958897596</t>
+        </is>
+      </c>
+      <c r="P467" t="inlineStr">
+        <is>
+          <t>-41.727006156405466,174.21458268577317</t>
+        </is>
+      </c>
+      <c r="Q467" t="inlineStr">
+        <is>
+          <t>-41.7269332279343,174.2153229688108</t>
+        </is>
+      </c>
+      <c r="R467" t="inlineStr">
+        <is>
+          <t>-41.72655346661876,174.21612605450713</t>
+        </is>
+      </c>
+      <c r="S467" t="inlineStr">
+        <is>
+          <t>-41.72631382260037,174.21706900139114</t>
+        </is>
+      </c>
+      <c r="T467" t="inlineStr">
+        <is>
+          <t>-41.72623896360608,174.21789425492082</t>
+        </is>
+      </c>
+      <c r="U467" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0364/nzd0364.xlsx
+++ b/data/nzd0364/nzd0364.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U467"/>
+  <dimension ref="A1:U468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30297,6 +30297,67 @@
         </is>
       </c>
     </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:27+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>413.8114285714286</v>
+      </c>
+      <c r="C468" t="n">
+        <v>414.2714285714285</v>
+      </c>
+      <c r="D468" t="n">
+        <v>424.0714285714286</v>
+      </c>
+      <c r="E468" t="n">
+        <v>429.8814285714286</v>
+      </c>
+      <c r="F468" t="n">
+        <v>436.3114285714286</v>
+      </c>
+      <c r="G468" t="n">
+        <v>440.2314285714286</v>
+      </c>
+      <c r="H468" t="n">
+        <v>443.7514285714286</v>
+      </c>
+      <c r="I468" t="n">
+        <v>452.2314285714286</v>
+      </c>
+      <c r="J468" t="n">
+        <v>451.8114285714286</v>
+      </c>
+      <c r="K468" t="n">
+        <v>454.4114285714285</v>
+      </c>
+      <c r="L468" t="n">
+        <v>448.8514285714285</v>
+      </c>
+      <c r="M468" t="n">
+        <v>457.53</v>
+      </c>
+      <c r="N468" t="n">
+        <v>478.3814285714286</v>
+      </c>
+      <c r="O468" t="n">
+        <v>480.16</v>
+      </c>
+      <c r="P468" t="n">
+        <v>474.35</v>
+      </c>
+      <c r="Q468" t="inlineStr"/>
+      <c r="R468" t="inlineStr"/>
+      <c r="S468" t="inlineStr"/>
+      <c r="T468" t="inlineStr"/>
+      <c r="U468" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30308,7 +30369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B499"/>
+  <dimension ref="A1:B500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35306,6 +35367,16 @@
       </c>
       <c r="B499" t="n">
         <v>0.37</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>-0.54</v>
       </c>
     </row>
   </sheetData>
@@ -36942,7 +37013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U467"/>
+  <dimension ref="A1:U468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82119,6 +82190,97 @@
         </is>
       </c>
     </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:27+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>-41.72385588330653,174.20365157240727</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>-41.72422514944089,174.20440130417947</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>-41.7245165875758,174.20519702935556</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>-41.72480179017377,174.2059556809627</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>-41.72505143463508,174.2067586309172</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>-41.72533200352072,174.2075747958207</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>-41.725614906451355,174.208388216386</t>
+        </is>
+      </c>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>-41.725850644018244,174.20921252272584</t>
+        </is>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>-41.726120443476155,174.209943796777</t>
+        </is>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>-41.72631206757338,174.21074032439438</t>
+        </is>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>-41.72658537282322,174.2115459186156</t>
+        </is>
+      </c>
+      <c r="M468" t="inlineStr">
+        <is>
+          <t>-41.72671474610884,174.21239275230155</t>
+        </is>
+      </c>
+      <c r="N468" t="inlineStr">
+        <is>
+          <t>-41.72670812798058,174.21323837458215</t>
+        </is>
+      </c>
+      <c r="O468" t="inlineStr">
+        <is>
+          <t>-41.726798447503405,174.2138730438021</t>
+        </is>
+      </c>
+      <c r="P468" t="inlineStr">
+        <is>
+          <t>-41.72683516421448,174.21457217467648</t>
+        </is>
+      </c>
+      <c r="Q468" t="inlineStr"/>
+      <c r="R468" t="inlineStr"/>
+      <c r="S468" t="inlineStr"/>
+      <c r="T468" t="inlineStr"/>
+      <c r="U468" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0364/nzd0364.xlsx
+++ b/data/nzd0364/nzd0364.xlsx
@@ -35550,28 +35550,28 @@
         <v>0.0417</v>
       </c>
       <c r="I2" t="n">
-        <v>2.214053914717677</v>
+        <v>2.215415195731038</v>
       </c>
       <c r="J2" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K2" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6030696142171991</v>
+        <v>0.6046330373485465</v>
       </c>
       <c r="M2" t="n">
-        <v>10.95628674708902</v>
+        <v>10.93600017762814</v>
       </c>
       <c r="N2" t="n">
-        <v>186.3143693657849</v>
+        <v>185.8830202819381</v>
       </c>
       <c r="O2" t="n">
-        <v>13.64970217132172</v>
+        <v>13.63389233791796</v>
       </c>
       <c r="P2" t="n">
-        <v>352.8950664091001</v>
+        <v>352.8817736552814</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35628,28 +35628,28 @@
         <v>0.0422</v>
       </c>
       <c r="I3" t="n">
-        <v>2.330393561889963</v>
+        <v>2.330434856956236</v>
       </c>
       <c r="J3" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K3" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6142096542127341</v>
+        <v>0.6154826827797801</v>
       </c>
       <c r="M3" t="n">
-        <v>11.14155849153875</v>
+        <v>11.1148934274049</v>
       </c>
       <c r="N3" t="n">
-        <v>196.8233397831973</v>
+        <v>196.3490851049862</v>
       </c>
       <c r="O3" t="n">
-        <v>14.02937417646266</v>
+        <v>14.01246177889475</v>
       </c>
       <c r="P3" t="n">
-        <v>353.0861701302363</v>
+        <v>353.0857655025265</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35706,28 +35706,28 @@
         <v>0.041</v>
       </c>
       <c r="I4" t="n">
-        <v>2.597389527220133</v>
+        <v>2.597965434849958</v>
       </c>
       <c r="J4" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K4" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6582067965866112</v>
+        <v>0.6595275490173045</v>
       </c>
       <c r="M4" t="n">
-        <v>11.45263912776441</v>
+        <v>11.42727803859891</v>
       </c>
       <c r="N4" t="n">
-        <v>203.1257155822837</v>
+        <v>202.6350218429841</v>
       </c>
       <c r="O4" t="n">
-        <v>14.25221791800433</v>
+        <v>14.23499286417047</v>
       </c>
       <c r="P4" t="n">
-        <v>354.7647928745924</v>
+        <v>354.7591922673629</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -35784,28 +35784,28 @@
         <v>0.0427</v>
       </c>
       <c r="I5" t="n">
-        <v>2.870403390975795</v>
+        <v>2.869582765880232</v>
       </c>
       <c r="J5" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K5" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6865045894685805</v>
+        <v>0.6875318378022812</v>
       </c>
       <c r="M5" t="n">
-        <v>11.9489701716371</v>
+        <v>11.92506333773127</v>
       </c>
       <c r="N5" t="n">
-        <v>218.526419570291</v>
+        <v>218.0083843163409</v>
       </c>
       <c r="O5" t="n">
-        <v>14.78263912737814</v>
+        <v>14.76510698628157</v>
       </c>
       <c r="P5" t="n">
-        <v>356.3718509360427</v>
+        <v>356.3798209789712</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -35862,28 +35862,28 @@
         <v>0.0423</v>
       </c>
       <c r="I6" t="n">
-        <v>3.152555614638347</v>
+        <v>3.152638680724629</v>
       </c>
       <c r="J6" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K6" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7105919742010174</v>
+        <v>0.7116771186517108</v>
       </c>
       <c r="M6" t="n">
-        <v>12.4047588728356</v>
+        <v>12.37546507157253</v>
       </c>
       <c r="N6" t="n">
-        <v>234.7842688700708</v>
+        <v>234.2226605552048</v>
       </c>
       <c r="O6" t="n">
-        <v>15.32267172754382</v>
+        <v>15.3043346982221</v>
       </c>
       <c r="P6" t="n">
-        <v>353.4792502049913</v>
+        <v>353.4784363308974</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -35940,28 +35940,28 @@
         <v>0.0394</v>
       </c>
       <c r="I7" t="n">
-        <v>3.283840821218746</v>
+        <v>3.284950791913682</v>
       </c>
       <c r="J7" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K7" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L7" t="n">
-        <v>0.707716586425706</v>
+        <v>0.7088725540866578</v>
       </c>
       <c r="M7" t="n">
-        <v>13.22905084825541</v>
+        <v>13.20317337457018</v>
       </c>
       <c r="N7" t="n">
-        <v>259.7484563834214</v>
+        <v>259.1560140672665</v>
       </c>
       <c r="O7" t="n">
-        <v>16.11671357266802</v>
+        <v>16.09832333093315</v>
       </c>
       <c r="P7" t="n">
-        <v>351.6411062459483</v>
+        <v>351.6301920551048</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -36018,28 +36018,28 @@
         <v>0.0449</v>
       </c>
       <c r="I8" t="n">
-        <v>3.176141290574718</v>
+        <v>3.178448797966643</v>
       </c>
       <c r="J8" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K8" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6722204904113658</v>
+        <v>0.6735880494965452</v>
       </c>
       <c r="M8" t="n">
-        <v>13.77456132023363</v>
+        <v>13.75317207701871</v>
       </c>
       <c r="N8" t="n">
-        <v>287.7153850481192</v>
+        <v>287.1041429323143</v>
       </c>
       <c r="O8" t="n">
-        <v>16.9621751272683</v>
+        <v>16.94414774877492</v>
       </c>
       <c r="P8" t="n">
-        <v>355.2928225211311</v>
+        <v>355.2701770487644</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -36096,28 +36096,28 @@
         <v>0.0417</v>
       </c>
       <c r="I9" t="n">
-        <v>3.196110588839665</v>
+        <v>3.201022826865395</v>
       </c>
       <c r="J9" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K9" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6595051005947722</v>
+        <v>0.6611062953198777</v>
       </c>
       <c r="M9" t="n">
-        <v>14.34878771844479</v>
+        <v>14.33935974244881</v>
       </c>
       <c r="N9" t="n">
-        <v>306.3813350758919</v>
+        <v>305.9398947047558</v>
       </c>
       <c r="O9" t="n">
-        <v>17.50375202851925</v>
+        <v>17.4911376046487</v>
       </c>
       <c r="P9" t="n">
-        <v>357.4783426673637</v>
+        <v>357.4297807680161</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -36174,28 +36174,28 @@
         <v>0.0425</v>
       </c>
       <c r="I10" t="n">
-        <v>3.343423068485073</v>
+        <v>3.34612613944522</v>
       </c>
       <c r="J10" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K10" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6712811580601916</v>
+        <v>0.672706031314058</v>
       </c>
       <c r="M10" t="n">
-        <v>14.63866444756506</v>
+        <v>14.6171633761269</v>
       </c>
       <c r="N10" t="n">
-        <v>315.338176822096</v>
+        <v>314.6625347579644</v>
       </c>
       <c r="O10" t="n">
-        <v>17.757763846332</v>
+        <v>17.73872979550578</v>
       </c>
       <c r="P10" t="n">
-        <v>358.278508338482</v>
+        <v>358.2516441841456</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -36252,28 +36252,28 @@
         <v>0.041</v>
       </c>
       <c r="I11" t="n">
-        <v>3.523943046397573</v>
+        <v>3.528242985176198</v>
       </c>
       <c r="J11" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K11" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6652531607053875</v>
+        <v>0.6668160786844771</v>
       </c>
       <c r="M11" t="n">
-        <v>15.73532139811928</v>
+        <v>15.72026780849328</v>
       </c>
       <c r="N11" t="n">
-        <v>356.3117846696441</v>
+        <v>355.642737734708</v>
       </c>
       <c r="O11" t="n">
-        <v>18.87622273310113</v>
+        <v>18.85849245657531</v>
       </c>
       <c r="P11" t="n">
-        <v>352.8579514581133</v>
+        <v>352.8147453041956</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -36330,28 +36330,28 @@
         <v>0.0449</v>
       </c>
       <c r="I12" t="n">
-        <v>3.911340709885257</v>
+        <v>3.90985294872117</v>
       </c>
       <c r="J12" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K12" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6776657813147228</v>
+        <v>0.6786324707920484</v>
       </c>
       <c r="M12" t="n">
-        <v>16.923443365428</v>
+        <v>16.88835163308106</v>
       </c>
       <c r="N12" t="n">
-        <v>412.9199376886278</v>
+        <v>411.9115735978645</v>
       </c>
       <c r="O12" t="n">
-        <v>20.32043153303167</v>
+        <v>20.29560478522048</v>
       </c>
       <c r="P12" t="n">
-        <v>349.4114830767391</v>
+        <v>349.4265047543361</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -36408,28 +36408,28 @@
         <v>0.0352</v>
       </c>
       <c r="I13" t="n">
-        <v>4.237710278060539</v>
+        <v>4.236308059016673</v>
       </c>
       <c r="J13" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K13" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6787198009369257</v>
+        <v>0.679664749147131</v>
       </c>
       <c r="M13" t="n">
-        <v>18.04467786824569</v>
+        <v>18.00877609600323</v>
       </c>
       <c r="N13" t="n">
-        <v>485.0850026847128</v>
+        <v>483.9327062239796</v>
       </c>
       <c r="O13" t="n">
-        <v>22.0246453475354</v>
+        <v>21.99847054283501</v>
       </c>
       <c r="P13" t="n">
-        <v>349.4694310356416</v>
+        <v>349.4835560985653</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -36486,28 +36486,28 @@
         <v>0.0437</v>
       </c>
       <c r="I14" t="n">
-        <v>4.55373243170682</v>
+        <v>4.557739662479451</v>
       </c>
       <c r="J14" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K14" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6978820214946646</v>
+        <v>0.6992812591063202</v>
       </c>
       <c r="M14" t="n">
-        <v>18.70586708295664</v>
+        <v>18.67802252248902</v>
       </c>
       <c r="N14" t="n">
-        <v>509.3897345401861</v>
+        <v>508.2511410185707</v>
       </c>
       <c r="O14" t="n">
-        <v>22.5696640325058</v>
+        <v>22.54442594120708</v>
       </c>
       <c r="P14" t="n">
-        <v>350.7381914340754</v>
+        <v>350.697348102415</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -36564,28 +36564,28 @@
         <v>0.0302</v>
       </c>
       <c r="I15" t="n">
-        <v>4.655584984419716</v>
+        <v>4.657692799490448</v>
       </c>
       <c r="J15" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K15" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6656055327945574</v>
+        <v>0.6669476032115345</v>
       </c>
       <c r="M15" t="n">
-        <v>20.20792863832639</v>
+        <v>20.16565408465301</v>
       </c>
       <c r="N15" t="n">
-        <v>620.6124286750295</v>
+        <v>619.0532362910121</v>
       </c>
       <c r="O15" t="n">
-        <v>24.91209402428928</v>
+        <v>24.88078045984515</v>
       </c>
       <c r="P15" t="n">
-        <v>353.7527635264684</v>
+        <v>353.7313026614166</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -36642,28 +36642,28 @@
         <v>0.0355</v>
       </c>
       <c r="I16" t="n">
-        <v>4.269721160879572</v>
+        <v>4.273995032370656</v>
       </c>
       <c r="J16" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K16" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6832013387240827</v>
+        <v>0.6846661348428575</v>
       </c>
       <c r="M16" t="n">
-        <v>17.99181042004557</v>
+        <v>17.96881349152732</v>
       </c>
       <c r="N16" t="n">
-        <v>480.0691747697178</v>
+        <v>479.0442939959667</v>
       </c>
       <c r="O16" t="n">
-        <v>21.91048093424053</v>
+        <v>21.88708052701334</v>
       </c>
       <c r="P16" t="n">
-        <v>353.5239342149466</v>
+        <v>353.4804385772575</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -36723,7 +36723,7 @@
         <v>4.940957938775444</v>
       </c>
       <c r="J17" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K17" t="n">
         <v>386</v>
@@ -36801,7 +36801,7 @@
         <v>6.417774260726068</v>
       </c>
       <c r="J18" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K18" t="n">
         <v>376</v>
@@ -36879,7 +36879,7 @@
         <v>6.901955711655928</v>
       </c>
       <c r="J19" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K19" t="n">
         <v>375</v>
@@ -36957,7 +36957,7 @@
         <v>6.774148863178088</v>
       </c>
       <c r="J20" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K20" t="n">
         <v>377</v>

--- a/data/nzd0364/nzd0364.xlsx
+++ b/data/nzd0364/nzd0364.xlsx
@@ -35541,13 +35541,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0341</v>
+        <v>0.0425</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0417</v>
+        <v>0.0545</v>
       </c>
       <c r="I2" t="n">
         <v>2.215427220334353</v>
@@ -35619,13 +35619,13 @@
         <v>0.05561596791004955</v>
       </c>
       <c r="F3" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G3" t="n">
-        <v>0.034</v>
+        <v>0.0418</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0422</v>
+        <v>0.0534</v>
       </c>
       <c r="I3" t="n">
         <v>2.330448510804868</v>
@@ -35697,13 +35697,13 @@
         <v>0.1112319358200991</v>
       </c>
       <c r="F4" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G4" t="n">
-        <v>0.033</v>
+        <v>0.0397</v>
       </c>
       <c r="H4" t="n">
-        <v>0.041</v>
+        <v>0.0529</v>
       </c>
       <c r="I4" t="n">
         <v>2.597980783875559</v>
@@ -35775,13 +35775,13 @@
         <v>0.1667745830540306</v>
       </c>
       <c r="F5" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0334</v>
+        <v>0.0395</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0427</v>
+        <v>0.0526</v>
       </c>
       <c r="I5" t="n">
         <v>2.869592515851567</v>
@@ -35853,13 +35853,13 @@
         <v>0.2223905509653944</v>
       </c>
       <c r="F6" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.033</v>
+        <v>0.0431</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0423</v>
+        <v>0.0588</v>
       </c>
       <c r="I6" t="n">
         <v>3.152649267707484</v>
@@ -35931,13 +35931,13 @@
         <v>0.2780065188749246</v>
       </c>
       <c r="F7" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0297</v>
+        <v>0.0409</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0394</v>
+        <v>0.0733</v>
       </c>
       <c r="I7" t="n">
         <v>3.284955650449136</v>
@@ -36009,13 +36009,13 @@
         <v>0.3336224448457791</v>
       </c>
       <c r="F8" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.032</v>
+        <v>0.0396</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0449</v>
+        <v>0.0716</v>
       </c>
       <c r="I8" t="n">
         <v>3.178456077660884</v>
@@ -36087,13 +36087,13 @@
         <v>0.3892384127558493</v>
       </c>
       <c r="F9" t="n">
-        <v>0.035</v>
+        <v>0.065</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03</v>
+        <v>0.0447</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0417</v>
+        <v>0.1059</v>
       </c>
       <c r="I9" t="n">
         <v>3.20103241250398</v>
@@ -36165,13 +36165,13 @@
         <v>0.4447674677829374</v>
       </c>
       <c r="F10" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0296</v>
+        <v>0.0386</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0425</v>
+        <v>0.0547</v>
       </c>
       <c r="I10" t="n">
         <v>3.346138676378452</v>
@@ -36243,13 +36243,13 @@
         <v>0.5003834356922455</v>
       </c>
       <c r="F11" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0298</v>
+        <v>0.0386</v>
       </c>
       <c r="H11" t="n">
-        <v>0.041</v>
+        <v>0.0563</v>
       </c>
       <c r="I11" t="n">
         <v>3.52825470412624</v>
@@ -36321,13 +36321,13 @@
         <v>0.5559994036013758</v>
       </c>
       <c r="F12" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0291</v>
+        <v>0.0415</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0449</v>
+        <v>0.0675</v>
       </c>
       <c r="I12" t="n">
         <v>3.909863571274379</v>
@@ -36399,13 +36399,13 @@
         <v>0.6115893233482005</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0283</v>
+        <v>0.0308</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0352</v>
+        <v>0.0469</v>
       </c>
       <c r="I13" t="n">
         <v>4.236309637923057</v>
@@ -36477,13 +36477,13 @@
         <v>0.6672052912582127</v>
       </c>
       <c r="F14" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0294</v>
+        <v>0.0386</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0437</v>
+        <v>0.0692</v>
       </c>
       <c r="I14" t="n">
         <v>4.557752791638232</v>
@@ -36555,13 +36555,13 @@
         <v>0.7222930745122773</v>
       </c>
       <c r="F15" t="n">
-        <v>0.025</v>
+        <v>0.04</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0213</v>
+        <v>0.0328</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0302</v>
+        <v>0.0529</v>
       </c>
       <c r="I15" t="n">
         <v>4.657692799490448</v>
@@ -36633,13 +36633,13 @@
         <v>0.7779090424220068</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03</v>
+        <v>0.045</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0245</v>
+        <v>0.0363</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0355</v>
+        <v>0.0592</v>
       </c>
       <c r="I16" t="n">
         <v>4.273992851034188</v>
@@ -36711,13 +36711,13 @@
         <v>0.8333466390107377</v>
       </c>
       <c r="F17" t="n">
-        <v>0.025</v>
+        <v>0.045</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0222</v>
+        <v>0.0346</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0367</v>
+        <v>0.0613</v>
       </c>
       <c r="I17" t="n">
         <v>4.940957938775444</v>
@@ -36789,13 +36789,13 @@
         <v>0.8889626069204143</v>
       </c>
       <c r="F18" t="n">
-        <v>0.025</v>
+        <v>0.045</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0216</v>
+        <v>0.0322</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0383</v>
+        <v>0.06859999999999999</v>
       </c>
       <c r="I18" t="n">
         <v>6.417774260726069</v>
@@ -36867,13 +36867,13 @@
         <v>0.9445215783266067</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03</v>
+        <v>0.065</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0219</v>
+        <v>0.0419</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0426</v>
+        <v>0.162</v>
       </c>
       <c r="I19" t="n">
         <v>6.901948760190904</v>
@@ -36945,13 +36945,13 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.035</v>
+        <v>0.06</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0277</v>
+        <v>0.0402</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0597</v>
+        <v>0.1255</v>
       </c>
       <c r="I20" t="n">
         <v>6.774152179136186</v>
